--- a/数据集/诗歌数据.xlsx
+++ b/数据集/诗歌数据.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>元稹</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>空山不见人，但闻人语响。返景入深林，复照青苔上。</t>
+          <t>寥落古行宫，宫花寂寞红。白头宫女在，闲坐说玄宗。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>胡德才 ．大学语文 ．北京市</t>
+          <t>雅瑟．《唐诗三百首鉴赏大全集》</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>独坐幽篁里，弹琴复长啸。深林人不知，明月来相照。</t>
+          <t>山中相送罢，日暮掩柴扉。春草明年绿，王孙归不归？(明年 一作：年年)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>宋之问</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,12 +524,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>美人卷珠帘，深坐蹙蛾眉。(蹙 一作：颦)但见泪痕湿，不知心恨谁。</t>
+          <t>岭外音书断，经冬复历春。近乡情更怯，不敢问来人。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>金性尧．唐诗三百首新注</t>
+          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>西鄙人</t>
+          <t>王之涣</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北斗七星高，哥舒夜带刀。至今窥牧马，不敢过临洮。</t>
+          <t>白日依山尽，黄河入海流。欲穷千里目，更上一层楼。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>祖咏</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>终南阴岭秀，积雪浮云端。林表明霁色，城中增暮寒。</t>
+          <t>美人卷珠帘，深坐蹙蛾眉。(蹙 一作：颦)但见泪痕湿，不知心恨谁。</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>金性尧．唐诗三百首新注</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>红豆生南国，春来发几枝。愿君多采撷，此物最相思。</t>
+          <t>向晚意不适，驱车登古原。夕阳无限好，只是近黄昏。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>邓安生 等．王维诗选译．成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>柳宗元</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>山中相送罢，日暮掩柴扉。春草明年绿，王孙归不归？(明年 一作：年年)</t>
+          <t>千山鸟飞绝，万径人踪灭。孤舟蓑笠翁，独钓寒江雪。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>周家丞．唐诗三百首新编</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>金昌绪</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>向晚意不适，驱车登古原。夕阳无限好，只是近黄昏。</t>
+          <t>打起黄莺儿，莫教枝上啼。啼时惊妾梦，不得到辽西。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等．唐诗鉴赏辞典</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>金昌绪</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>打起黄莺儿，莫教枝上啼。啼时惊妾梦，不得到辽西。</t>
+          <t>孤云将野鹤，岂向人间住。莫买沃洲山，时人已知处。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典</t>
+          <t>韩成武．唐诗三百首赏析</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>权德舆</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>移舟泊烟渚，日暮客愁新。野旷天低树，江清月近人。</t>
+          <t>昨夜裙带解，今朝蟢子飞。铅华不可弃，莫是藁砧归。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>邓安生 孙佩君．孟浩然诗选译．成都</t>
+          <t>江延秋 ．国学经典导读 唐诗三百首</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>床前明月光，疑是地上霜。举头望明月，低头思故乡。</t>
+          <t>君自故乡来，应知故乡事。来日绮窗前，寒梅著花未？</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>孙宏亮.李白《静夜思》考证. 延安大学学报(哲学社会科学版), 1998,02</t>
+          <t>马松原．唐诗宋词元曲</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>元稹</t>
+          <t>李端</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>寥落古行宫，宫花寂寞红。白头宫女在，闲坐说玄宗。</t>
+          <t>鸣筝金粟柱，素手玉房前。欲得周郎顾，时时误拂弦。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>雅瑟．《唐诗三百首鉴赏大全集》</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>君自故乡来，应知故乡事。来日绮窗前，寒梅著花未？</t>
+          <t>空山不见人，但闻人语响。返景入深林，复照青苔上。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>马松原．唐诗宋词元曲</t>
+          <t>胡德才 ．大学语文 ．北京市</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>柳宗元</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>千山鸟飞绝，万径人踪灭。孤舟蓑笠翁，独钓寒江雪。</t>
+          <t>独坐幽篁里，弹琴复长啸。深林人不知，明月来相照。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>周家丞．唐诗三百首新编</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>孤云将野鹤，岂向人间住。莫买沃洲山，时人已知处。</t>
+          <t>红豆生南国，春来发几枝。愿君多采撷，此物最相思。</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>韩成武．唐诗三百首赏析</t>
+          <t>邓安生 等．王维诗选译．成都</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>西鄙人</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>苍苍竹林寺，杳杳钟声晚。荷笠带斜阳，青山独归远。(斜阳 一作：夕阳)</t>
+          <t>北斗七星高，哥舒夜带刀。至今窥牧马，不敢过临洮。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>李端</t>
+          <t>裴迪</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鸣筝金粟柱，素手玉房前。欲得周郎顾，时时误拂弦。</t>
+          <t>归山深浅去，须尽丘壑美。莫学武陵人，暂游桃源里。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>张祜</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>春眠不觉晓，处处闻啼鸟。夜来风雨声，花落知多少。</t>
+          <t>故国三千里，深宫二十年。一声何满子，双泪落君前。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>吉林大学中文系．唐诗鉴赏大典（十一）</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>贾岛</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>松下问童子，言师采药去。只在此山中，云深不知处。</t>
+          <t>苍苍竹林寺，杳杳钟声晚。荷笠带斜阳，青山独归远。(斜阳 一作：夕阳)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>贾岛</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>功盖三分国，名成八阵图。（名成 一作：名高）江流石不转，遗恨失吞吴。</t>
+          <t>松下问童子，言师采药去。只在此山中，云深不知处。</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>海兵．杜甫诗全集详注．乌鲁木齐</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>泠泠七弦上，静听松风寒。(七弦 一作：七丝)古调虽自爱，今人多不弹。</t>
+          <t>春眠不觉晓，处处闻啼鸟。夜来风雨声，花落知多少。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>王之涣</t>
+          <t>祖咏</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>白日依山尽，黄河入海流。欲穷千里目，更上一层楼。</t>
+          <t>终南阴岭秀，积雪浮云端。林表明霁色，城中增暮寒。</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宋之问</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>岭外音书断，经冬复历春。近乡情更怯，不敢问来人。</t>
+          <t>移舟泊烟渚，日暮客愁新。野旷天低树，江清月近人。</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
+          <t>邓安生 孙佩君．孟浩然诗选译．成都</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>张祜</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>故国三千里，深宫二十年。一声何满子，双泪落君前。</t>
+          <t>泠泠七弦上，静听松风寒。(七弦 一作：七丝)古调虽自爱，今人多不弹。</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>吉林大学中文系．唐诗鉴赏大典（十一）</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>权德舆</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>昨夜裙带解，今朝蟢子飞。铅华不可弃，莫是藁砧归。</t>
+          <t>床前明月光，疑是地上霜。举头望明月，低头思故乡。</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>江延秋 ．国学经典导读 唐诗三百首</t>
+          <t>孙宏亮.李白《静夜思》考证. 延安大学学报(哲学社会科学版), 1998,02</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>怀君属秋夜，散步咏凉天。空山松子落，幽人应未眠。(空山 一作：山空)</t>
+          <t>功盖三分国，名成八阵图。（名成 一作：名高）江流石不转，遗恨失吞吴。</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>海兵．杜甫诗全集详注．乌鲁木齐</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>裴迪</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>归山深浅去，须尽丘壑美。莫学武陵人，暂游桃源里。</t>
+          <t>怀君属秋夜，散步咏凉天。空山松子落，幽人应未眠。(空山 一作：山空)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>朱庆馀</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>寂寂花时闭院门，美人相并立琼轩。 含情欲说宫中事，鹦鹉前头不敢言。</t>
+          <t>寒雨连江夜入吴，平明送客楚山孤。洛阳亲友如相问，一片冰心在玉壶。</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>柳中庸</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>岁岁金河复玉关，朝朝马策与刀环。 三春白雪归青冢，万里黄河绕黑山。</t>
+          <t>乘兴南游不戒严，九重谁省谏书函。 春风举国裁宫锦，半作障泥半作帆。</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>韩成武·唐诗三百首赏析</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>寒雨连江夜入吴，平明送客楚山孤。洛阳亲友如相问，一片冰心在玉壶。</t>
+          <t>昨夜风开露井桃，未央前殿月轮高。 平阳歌舞新承宠，帘外春寒赐锦袍。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>王翰</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>岐王宅里寻常见，崔九堂前几度闻。正是江南好风景，落花时节又逢君。</t>
+          <t>葡萄美酒夜光杯，欲饮琵琶马上催。醉卧沙场君莫笑，古来征战几人回？</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>清时有味是无能，闲爱孤云静爱僧。 欲把一麾江海去，乐游原上望昭陵。</t>
+          <t>多情却似总无情，唯觉尊前笑不成。(尊 一作：樽)蜡烛有心还惜别，替人垂泪到天明。</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>吉林大学出版社．唐诗鉴赏大典（十一）</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>乘兴南游不戒严，九重谁省谏书函。 春风举国裁宫锦，半作障泥半作帆。</t>
+          <t>故园东望路漫漫，双袖龙钟泪不干。 马上相逢无纸笔，凭君传语报平安。</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等 ．唐诗三百首·宋词三百首·元曲三百首 ．上海</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>朱庆馀</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>洞房昨夜停红烛，待晓堂前拜舅姑。 妆罢低声问夫婿，画眉深浅入时无。</t>
+          <t>娉娉袅袅十三余，豆蔻梢头二月初。春风十里扬州路，卷上珠帘总不如。</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>吉林大学出版社．唐诗鉴赏大典（十一）</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>朝辞白帝彩云间，千里江陵一日还。两岸猿声啼不住，轻舟已过万重山。</t>
+          <t>云母屏风烛影深，长河渐落晓星沉。嫦娥应悔偷灵药，碧海青天夜夜心。</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>詹福瑞 等．李白诗全译．石家庄</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>佚名</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>故园东望路漫漫，双袖龙钟泪不干。 马上相逢无纸笔，凭君传语报平安。</t>
+          <t>近寒食雨草萋萋，著麦苗风柳映堤。等是有家归未得，杜鹃休向耳边啼。(等 一作：早)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>萧涤非 等 ．唐诗三百首·宋词三百首·元曲三百首 ．上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>白居易</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>泪湿罗巾梦不成，夜深前殿按歌声。(湿 一作：尽)红颜未老恩先断，斜倚薰笼坐到明。</t>
+          <t>折戟沉沙铁未销，自将磨洗认前朝。东风不与周郎便，铜雀春深锁二乔。</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（下）．上海</t>
+          <t>萧涤非 等．唐诗鉴赏辞典</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>瑶池阿母绮窗开，黄竹歌声动地哀。 八骏日行三万里，穆王何事不重来。</t>
+          <t>独在异乡为异客，每逢佳节倍思亲。遥知兄弟登高处，遍插茱萸少一人。</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>青山隐隐水迢迢，秋尽江南草未凋。二十四桥明月夜，玉人何处教吹箫？</t>
+          <t>宣室求贤访逐臣，贾生才调更无伦。可怜夜半虚前席，不问苍生问鬼神。</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>唐诗三百首译注评 （上册） ．朱炯远，毕宝魁，陈崇宇 ．沈阳</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>李益</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>落魄江湖载酒行，楚腰纤细掌中轻。(江湖 一作：江南；纤细 一作：肠断)十年一觉扬州梦，赢得青楼薄幸名。</t>
+          <t>回乐烽前沙似雪，受降城外月如霜。(回乐烽 一作：回乐峰)不知何处吹芦管，一夜征人尽望乡。</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>韩翃</t>
+          <t>朱庆馀</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>春城无处不飞花，寒食东风御柳斜。 日暮汉宫传蜡烛，轻烟散入五侯家。</t>
+          <t>寂寂花时闭院门，美人相并立琼轩。 含情欲说宫中事，鹦鹉前头不敢言。</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>中国文学网.寒食</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>云母屏风烛影深，长河渐落晓星沉。嫦娥应悔偷灵药，碧海青天夜夜心。</t>
+          <t>故人西辞黄鹤楼，烟花三月下扬州。孤帆远影碧空尽，唯见长江天际流。 (唯 通：惟)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>熊礼汇 ．李白诗 ．北京</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>王昌龄</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>昨夜风开露井桃，未央前殿月轮高。 平阳歌舞新承宠，帘外春寒赐锦袍。</t>
+          <t>君问归期未有期，巴山夜雨涨秋池。 何当共剪西窗烛，却话巴山夜雨时。</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>王一川．文学理论[M]．成都</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>张继</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>独在异乡为异客，每逢佳节倍思亲。遥知兄弟登高处，遍插茱萸少一人。</t>
+          <t>月落乌啼霜满天，江枫渔火对愁眠。姑苏城外寒山寺，夜半钟声到客船。</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>李益</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>回乐烽前沙似雪，受降城外月如霜。(回乐烽 一作：回乐峰)不知何处吹芦管，一夜征人尽望乡。</t>
+          <t>岐王宅里寻常见，崔九堂前几度闻。正是江南好风景，落花时节又逢君。</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>韩偓</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>多情却似总无情，唯觉尊前笑不成。(尊 一作：樽)蜡烛有心还惜别，替人垂泪到天明。</t>
+          <t>碧阑干外绣帘垂，猩色屏风画折枝。(猩色 一作：猩血)八尺龙须方锦褥，已凉天气未寒时。</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>吉林大学出版社．唐诗鉴赏大典（十一）</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>郑畋</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>银烛秋光冷画屏，轻罗小扇扑流萤。天阶夜色凉如水，卧看牵牛织女星。(天阶 一作：天街；卧看 一作：坐看)</t>
+          <t>玄宗回马杨妃死，云雨难忘日月新。(难忘 一作：虽忘)终是圣明天子事，景阳宫井又何人。</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>贺知章</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>娉娉袅袅十三余，豆蔻梢头二月初。春风十里扬州路，卷上珠帘总不如。</t>
+          <t>少小离家老大回，乡音无改鬓毛衰。儿童相见不相识，笑问客从何处来。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>吉林大学出版社．唐诗鉴赏大典（十一）</t>
+          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>为有云屏无限娇，凤城寒尽怕春宵。 无端嫁得金龟婿，辜负香衾事早朝。</t>
+          <t>繁华事散逐香尘，流水无情草自春。日暮东风怨啼鸟，落花犹似坠楼人。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>赵祖堃等选注．宋诗三百首</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>温庭筠</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>嵩云秦树久离居，双鲤迢迢一纸书。 休问梁园旧宾客，茂陵秋雨病相如。</t>
+          <t>冰簟银床梦不成，碧天如水夜云轻。 雁声远过潇湘去，十二楼中月自明。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>萧涤非等．《唐诗鉴赏辞典》</t>
+          <t>彭定求 等．全唐诗（下）．上海</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>故人西辞黄鹤楼，烟花三月下扬州。孤帆远影碧空尽，唯见长江天际流。 (唯 通：惟)</t>
+          <t>落魄江湖载酒行，楚腰纤细掌中轻。(江湖 一作：江南；纤细 一作：肠断)十年一觉扬州梦，赢得青楼薄幸名。</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>熊礼汇 ．李白诗 ．北京</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>张祜</t>
+          <t>陈陶</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>日光斜照集灵台，红树花迎晓露开。 昨夜上皇新授箓，太真含笑入帘来。</t>
+          <t>誓扫匈奴不顾身，五千貂锦丧胡尘。可怜无定河边骨，犹是春闺梦里人！(春闺 一作：深闺)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>韩偓</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>碧阑干外绣帘垂，猩色屏风画折枝。(猩色 一作：猩血)八尺龙须方锦褥，已凉天气未寒时。</t>
+          <t>为有云屏无限娇，凤城寒尽怕春宵。 无端嫁得金龟婿，辜负香衾事早朝。</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>白居易</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>独怜幽草涧边生，上有黄鹂深树鸣。 春潮带雨晚来急，野渡无人舟自横。</t>
+          <t>泪湿罗巾梦不成，夜深前殿按歌声。(湿 一作：尽)红颜未老恩先断，斜倚薰笼坐到明。</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>吉林大学中文系．唐诗鉴赏大典（七）．长春</t>
+          <t>彭定求 等．全唐诗（下）．上海</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>韦庄</t>
+          <t>朱庆馀</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>谁谓伤心画不成，画人心逐世人情。 君看六幅南朝事，老木寒云满故城。</t>
+          <t>洞房昨夜停红烛，待晓堂前拜舅姑。 妆罢低声问夫婿，画眉深浅入时无。</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>刘方平</t>
+          <t>韦庄</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>更深月色半人家，北斗阑干南斗斜。 今夜偏知春气暖，虫声新透绿窗纱。</t>
+          <t>谁谓伤心画不成，画人心逐世人情。 君看六幅南朝事，老木寒云满故城。</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>刘方平</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>纱窗日落渐黄昏，金屋无人见泪痕。 寂寞空庭春欲晚，梨花满地不开门。</t>
+          <t>瑶池阿母绮窗开，黄竹歌声动地哀。 八骏日行三万里，穆王何事不重来。</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>沙灵娜 何年．唐诗三百首全译</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>繁华事散逐香尘，流水无情草自春。日暮东风怨啼鸟，落花犹似坠楼人。</t>
+          <t>清时有味是无能，闲爱孤云静爱僧。 欲把一麾江海去，乐游原上望昭陵。</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>赵祖堃等选注．宋诗三百首</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>佚名</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>近寒食雨草萋萋，著麦苗风柳映堤。等是有家归未得，杜鹃休向耳边啼。(等 一作：早)</t>
+          <t>青山隐隐水迢迢，秋尽江南草未凋。二十四桥明月夜，玉人何处教吹箫？</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>刘禹锡</t>
+          <t>刘方平</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>朱雀桥边野草花，乌衣巷口夕阳斜。 旧时王谢堂前燕，飞入寻常百姓家。</t>
+          <t>更深月色半人家，北斗阑干南斗斜。 今夜偏知春气暖，虫声新透绿窗纱。</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>徐中玉 金启华．中国古代文学作品选（一）．上海．华东师范大学出版社．1999．631-633</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>刘禹锡</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>新妆宜面下朱楼，深锁春光一院愁。 行到中庭数花朵，蜻蜓飞上玉搔头。</t>
+          <t>朝辞白帝彩云间，千里江陵一日还。两岸猿声啼不住，轻舟已过万重山。</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（上）．上海</t>
+          <t>詹福瑞 等．李白诗全译．石家庄</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>贺知章</t>
+          <t>张泌</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>少小离家老大回，乡音无改鬓毛衰。儿童相见不相识，笑问客从何处来。</t>
+          <t>别梦依依到谢家，小廊回合曲阑斜。多情只有春庭月，犹为离人照落花。</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>郑畋</t>
+          <t>张祜</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>玄宗回马杨妃死，云雨难忘日月新。(难忘 一作：虽忘)终是圣明天子事，景阳宫井又何人。</t>
+          <t>日光斜照集灵台，红树花迎晓露开。 昨夜上皇新授箓，太真含笑入帘来。</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>张旭</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2279,12 +2279,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>隐隐飞桥隔野烟，石矶西畔问渔船。 桃花尽日随流水，洞在清溪何处边。</t>
+          <t>银烛秋光冷画屏，轻罗小扇扑流萤。天阶夜色凉如水，卧看牵牛织女星。(天阶 一作：天街；卧看 一作：坐看)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>张泌</t>
+          <t>柳中庸</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>别梦依依到谢家，小廊回合曲阑斜。多情只有春庭月，犹为离人照落花。</t>
+          <t>岁岁金河复玉关，朝朝马策与刀环。 三春白雪归青冢，万里黄河绕黑山。</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>张祜</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>禁门宫树月痕过，媚眼惟看宿鹭窠。斜拔玉钗灯影畔，剔开红焰救飞蛾。</t>
+          <t>烟笼寒水月笼沙，夜泊秦淮近酒家。商女不知亡国恨，隔江犹唱后庭花。</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>王翰</t>
+          <t>刘方平</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>葡萄美酒夜光杯，欲饮琵琶马上催。醉卧沙场君莫笑，古来征战几人回？</t>
+          <t>纱窗日落渐黄昏，金屋无人见泪痕。 寂寞空庭春欲晚，梨花满地不开门。</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>沙灵娜 何年．唐诗三百首全译</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>陈陶</t>
+          <t>张祜</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>誓扫匈奴不顾身，五千貂锦丧胡尘。可怜无定河边骨，犹是春闺梦里人！(春闺 一作：深闺)</t>
+          <t>虢国夫人承主恩，平明骑马入宫门。却嫌脂粉污颜色，淡扫蛾眉朝至尊。</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>萧涤非 等·唐诗鉴赏辞典[M]·上海</t>
         </is>
       </c>
     </row>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>金陵津渡小山楼，一宿行人自可愁。 潮落夜江斜月里，两三星火是瓜洲。</t>
+          <t>禁门宫树月痕过，媚眼惟看宿鹭窠。斜拔玉钗灯影畔，剔开红焰救飞蛾。</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>君问归期未有期，巴山夜雨涨秋池。 何当共剪西窗烛，却话巴山夜雨时。</t>
+          <t>嵩云秦树久离居，双鲤迢迢一纸书。 休问梁园旧宾客，茂陵秋雨病相如。</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>王一川．文学理论[M]．成都</t>
+          <t>萧涤非等．《唐诗鉴赏辞典》</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>刘禹锡</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>宣室求贤访逐臣，贾生才调更无伦。可怜夜半虚前席，不问苍生问鬼神。</t>
+          <t>朱雀桥边野草花，乌衣巷口夕阳斜。 旧时王谢堂前燕，飞入寻常百姓家。</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>唐诗三百首译注评 （上册） ．朱炯远，毕宝魁，陈崇宇 ．沈阳</t>
+          <t>徐中玉 金启华．中国古代文学作品选（一）．上海．华东师范大学出版社．1999．631-633</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>张继</t>
+          <t>刘禹锡</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>月落乌啼霜满天，江枫渔火对愁眠。姑苏城外寒山寺，夜半钟声到客船。</t>
+          <t>新妆宜面下朱楼，深锁春光一院愁。 行到中庭数花朵，蜻蜓飞上玉搔头。</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
+          <t>彭定求 等．全唐诗（上）．上海</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>温庭筠</t>
+          <t>张祜</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>冰簟银床梦不成，碧天如水夜云轻。 雁声远过潇湘去，十二楼中月自明。</t>
+          <t>金陵津渡小山楼，一宿行人自可愁。 潮落夜江斜月里，两三星火是瓜洲。</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>彭定求 等．全唐诗（下）．上海</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>张旭</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>折戟沉沙铁未销，自将磨洗认前朝。东风不与周郎便，铜雀春深锁二乔。</t>
+          <t>隐隐飞桥隔野烟，石矶西畔问渔船。 桃花尽日随流水，洞在清溪何处边。</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>韩翃</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>烟笼寒水月笼沙，夜泊秦淮近酒家。商女不知亡国恨，隔江犹唱后庭花。</t>
+          <t>春城无处不飞花，寒食东风御柳斜。 日暮汉宫传蜡烛，轻烟散入五侯家。</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>中国文学网.寒食</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>张祜</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>虢国夫人承主恩，平明骑马入宫门。却嫌脂粉污颜色，淡扫蛾眉朝至尊。</t>
+          <t>独怜幽草涧边生，上有黄鹂深树鸣。 春潮带雨晚来急，野渡无人舟自横。</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典[M]·上海</t>
+          <t>吉林大学中文系．唐诗鉴赏大典（七）．长春</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>蜀僧抱绿绮，西下峨眉峰。为我一挥手，如听万壑松。 客心洗流水，馀响入霜钟。不觉碧山暮，秋云暗几重。</t>
+          <t>不知香积寺，数里入云峰。古木无人径，深山何处钟。泉声咽危石，日色冷青松。薄暮空潭曲，安禅制毒龙。</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>裴斐．李白诗歌赏析集．成都</t>
+          <t>张晨·王维诗全鉴·北京</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>万壑树参天，千山响杜鹃。山中一夜雨，树杪百重泉。汉女输橦布，巴人讼芋田。文翁翻教授，不敢倚先贤。</t>
+          <t>太乙近天都，连山接海隅。(接 一作：到)白云回望合，青霭入看无。分野中峰变，阴晴众壑殊。欲投人处宿，隔水问樵夫。</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>刘怀荣．唐诗宋词名篇导读．北京</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>司空曙</t>
+          <t>宋之问</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>世乱同南去，时清独北还。他乡生白发，旧国见青山。 晓月过残垒，繁星宿故关。寒禽与衰草，处处伴愁颜。</t>
+          <t>阳月南飞雁，传闻至此回。我行殊未已，何日复归来。江静潮初落，林昏瘴不开。明朝望乡处，应见陇头梅。</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>张国举 等．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>杜荀鹤</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>中岁颇好道，晚家南山陲。兴来每独往，胜事空自知。行到水穷处，坐看云起时。偶然值林叟，谈笑无还期。</t>
+          <t>早被婵娟误，欲妆临镜慵。承恩不在貌，教妾若为容。 风暖鸟声碎，日高花影重。年年越溪女，相忆采芙蓉。</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>沈佺期</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>青山横北郭，白水绕东城。此地一为别，孤蓬万里征。浮云游子意，落日故人情。挥手自兹去，萧萧班马鸣。</t>
+          <t>闻道黄龙戍，频年不解兵。可怜闺里月，长在汉家营。少妇今春意，良人昨夜情。谁能将旗鼓，一为取龙城。</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>李白 著 詹福瑞 等 编．李白诗全译</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>司空曙</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>吾爱孟夫子，风流天下闻。红颜弃轩冕，白首卧松云。 醉月频中圣，迷花不事君。高山安可仰，徒此揖清芬。</t>
+          <t>故人江海别，几度隔山川。乍见翻疑梦，相悲各问年。孤灯寒照雨，深竹暗浮烟。(深竹 一作：湿竹)更有明朝恨，离杯惜共传。</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>郁贤皓 编选．李白集．南京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>凉风起天末，君子意如何。鸿雁几时到，江湖秋水多。文章憎命达，魑魅喜人过。应共冤魂语，投诗赠汨罗。</t>
+          <t>蜀僧抱绿绮，西下峨眉峰。为我一挥手，如听万壑松。 客心洗流水，馀响入霜钟。不觉碧山暮，秋云暗几重。</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>裴斐．李白诗歌赏析集．成都</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>远送从此别，青山空复情。几时杯重把，昨夜月同行。列郡讴歌惜，三朝出入荣。江村独归处，寂寞养残生。</t>
+          <t>他乡复行役，驻马别孤坟。近泪无干土，低空有断云。对棋陪谢傅，把剑觅徐君。唯见林花落，莺啼送客闻。</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>空山新雨后，天气晚来秋。明月松间照，清泉石上流。竹喧归浣女，莲动下渔舟。随意春芳歇，王孙自可留。</t>
+          <t>楚塞三湘接，荆门九派通。江流天地外，山色有无中。郡邑浮前浦，波澜动远空。襄阳好风日，留醉与山翁。</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>崔涂</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>几行归塞尽，念尔独何之。暮雨相呼失，寒塘欲下迟。渚云低暗度，关月冷相随。未必逢矰缴，孤飞自可疑。</t>
+          <t>万壑树参天，千山响杜鹃。山中一夜雨，树杪百重泉。汉女输橦布，巴人讼芋田。文翁翻教授，不敢倚先贤。</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>王湾</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>客路青山外，行舟绿水前。潮平两岸阔，风正一帆悬。海日生残夜，江春入旧年。乡书何处达？归雁洛阳边。</t>
+          <t>楚江微雨里，建业暮钟时。漠漠帆来重，冥冥鸟去迟。海门深不见，浦树远含滋。相送情无限，沾襟比散丝。</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜审言</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>渡远荆门外，来从楚国游。山随平野尽，江入大荒流。月下飞天镜，云生结海楼。仍怜故乡水，万里送行舟。</t>
+          <t>独有宦游人，偏惊物候新。云霞出海曙，梅柳渡江春。淑气催黄鸟，晴光转绿蘋。忽闻歌古调，归思欲沾巾。(巾 一作：襟)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>裴斐．李白诗歌赏析集．成都</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>崔涂</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>太乙近天都，连山接海隅。(接 一作：到)白云回望合，青霭入看无。分野中峰变，阴晴众壑殊。欲投人处宿，隔水问樵夫。</t>
+          <t>几行归塞尽，念尔独何之。暮雨相呼失，寒塘欲下迟。渚云低暗度，关月冷相随。未必逢矰缴，孤飞自可疑。</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>刘怀荣．唐诗宋词名篇导读．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>凄凉宝剑篇，羁泊欲穷年。黄叶仍风雨，青楼自管弦。新知遭薄俗，旧好隔良缘。心断新丰酒，销愁斗几千。</t>
+          <t>晚年唯好静，万事不关心。(唯 一作：惟)自顾无长策，空知返旧林。松风吹解带，山月照弹琴。君问穷通理，渔歌入浦深。</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>陈永正译注·李商隐诗选译·成都</t>
+          <t>沙灵娜·唐诗三百首全译·贵阳</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>司空曙</t>
+          <t>王湾</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>故人江海别，几度隔山川。乍见翻疑梦，相悲各问年。孤灯寒照雨，深竹暗浮烟。(深竹 一作：湿竹)更有明朝恨，离杯惜共传。</t>
+          <t>客路青山外，行舟绿水前。潮平两岸阔，风正一帆悬。海日生残夜，江春入旧年。乡书何处达？归雁洛阳边。</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>杜牧</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>不知香积寺，数里入云峰。古木无人径，深山何处钟。泉声咽危石，日色冷青松。薄暮空潭曲，安禅制毒龙。</t>
+          <t>旅馆无良伴，凝情自悄然。寒灯思旧事，断雁警愁眠。远梦归侵晓，家书到隔年。沧江好烟月，门系钓鱼船。</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>张晨·王维诗全鉴·北京</t>
+          <t>赵昌平·唐诗三百首全解</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>司空曙</t>
+          <t>王勃</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>静夜四无邻，荒居旧业贫。雨中黄叶树，灯下白头人。以我独沉久，愧君相见频。平生自有分，况是蔡家亲。</t>
+          <t>城阙辅三秦，风烟望五津。与君离别意，同是宦游人。海内存知己，天涯若比邻。无为在歧路，儿女共沾巾。</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>刘禹锡</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>牛渚西江夜，青天无片云。登舟望秋月，空忆谢将军。余亦能高咏，斯人不可闻。明朝挂帆席，枫叶落纷纷。(席 一作：去)</t>
+          <t>天地英雄气，千秋尚凛然。(天地 一作：天下)势分三足鼎，业复五铢钱。 得相能开国，生儿不象贤。凄凉蜀故妓，来舞魏宫前。</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>郁贤皓．李白集．南京</t>
+          <t>梁守中．刘禹锡诗文选译．成都</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>白居易</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>八月湖水平，涵虚混太清。气蒸云梦泽，波撼岳阳城。欲济无舟楫，端居耻圣明。坐观垂钓者，徒有羡鱼情。</t>
+          <t>离离原上草，一岁一枯荣。野火烧不尽，春风吹又生。远芳侵古道，晴翠接荒城。又送王孙去，萋萋满别情。</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>他乡复行役，驻马别孤坟。近泪无干土，低空有断云。对棋陪谢傅，把剑觅徐君。唯见林花落，莺啼送客闻。</t>
+          <t>远送从此别，青山空复情。几时杯重把，昨夜月同行。列郡讴歌惜，三朝出入荣。江村独归处，寂寞养残生。</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>司空曙</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>细草微风岸，危樯独夜舟。星垂平野阔，月涌大江流。名岂文章著，官应老病休。飘飘何所似，天地一沙鸥。</t>
+          <t>世乱同南去，时清独北还。他乡生白发，旧国见青山。 晓月过残垒，繁星宿故关。寒禽与衰草，处处伴愁颜。</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>陈才智．杜甫</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>王勃</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3197,12 +3197,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>城阙辅三秦，风烟望五津。与君离别意，同是宦游人。海内存知己，天涯若比邻。无为在歧路，儿女共沾巾。</t>
+          <t>渡远荆门外，来从楚国游。山随平野尽，江入大荒流。月下飞天镜，云生结海楼。仍怜故乡水，万里送行舟。</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>裴斐．李白诗歌赏析集．成都</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>沈佺期</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>闻道黄龙戍，频年不解兵。可怜闺里月，长在汉家营。少妇今春意，良人昨夜情。谁能将旗鼓，一为取龙城。</t>
+          <t>客去波平槛，蝉休露满枝。永怀当此节，倚立自移时。北斗兼春远，南陵寓使迟。天涯占梦数，疑误有新知。</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>陈伯海 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>马戴</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>灞原风雨定，晚见雁行频。落叶他乡树，寒灯独夜人。空园白露滴，孤壁野僧邻。寄卧郊扉久，何年致此身。</t>
+          <t>凄凉宝剑篇，羁泊欲穷年。黄叶仍风雨，青楼自管弦。新知遭薄俗，旧好隔良缘。心断新丰酒，销愁斗几千。</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>陈永正译注·李商隐诗选译·成都</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>张乔</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>残阳西入崦，茅屋访孤僧。落叶人何在，寒云路几层。 独敲初夜磬，闲倚一枝藤。世界微尘里，吾宁爱与憎。</t>
+          <t>调角断清秋，征人倚戍楼。春风对青冢，白日落梁州。大漠无兵阻，穷边有客游。蕃情似此水，长愿向南流。</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>安焕章编著·李商隐诗歌导读</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>昔闻洞庭水，今上岳阳楼。吴楚东南坼，乾坤日夜浮。亲朋无一字，老病有孤舟。戎马关山北，凭轩涕泗流。</t>
+          <t>联步趋丹陛，分曹限紫微。晓随天仗入，暮惹御香归。白发悲花落，青云羡鸟飞。圣朝无阙事，自觉谏书稀。</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>马玮．中国古典诗词名家菁华赏析·杜甫</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>李隆基</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>夫子何为者，栖栖一代中。地犹鄹氏邑，宅即鲁王宫。叹凤嗟身否，伤麟怨道穷。今看两楹奠，当与梦时同。</t>
+          <t>北阙休上书，南山归敝庐。不才明主弃，多病故人疏。白发催年老，青阳逼岁除。永怀愁不寐，松月夜窗虚。</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>蘅塘退士 等·唐诗三百首·宋词三百首·元曲三百首·北京</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>山暝听猿愁，沧江急夜流。风鸣两岸叶，月照一孤舟。建德非吾土，维扬忆旧游。还将两行泪，遥寄海西头。</t>
+          <t>望君烟水阔，挥手泪沾巾。飞鸟没何处，青山空向人。长江一帆远，落日五湖春。谁见汀洲上，相思愁白蘋。</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>张晓蕾，张志烈编著·唐诗品读</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>北阙休上书，南山归敝庐。不才明主弃，多病故人疏。白发催年老，青阳逼岁除。永怀愁不寐，松月夜窗虚。</t>
+          <t>寒山转苍翠，秋水日潺湲。倚杖柴门外，临风听暮蝉。渡头馀落日，墟里上孤烟。(馀 一作：余)复值接舆醉，狂歌五柳前。</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>蘅塘退士 等·唐诗三百首·宋词三百首·元曲三百首·北京</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>乡心新岁切，天畔独潸然。老至居人下，春归在客先。岭猿同旦暮，江柳共风烟。已似长沙傅，从今又几年。</t>
+          <t>此道昔归顺，西郊胡正繁。至今残破胆，应有未招魂。近侍归京邑，移官岂至尊。无才日衰老，驻马望千门。</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>吉林大学中文系．唐诗鉴赏大典（五）</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>温庭筠</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>林卧愁春尽，搴帷览物华。忽逢青鸟使，邀入赤松家。金灶初开火，仙桃正发花。童颜若可驻，何惜醉流霞。</t>
+          <t>荒戍落黄叶，浩然离故关。高风汉阳渡，初日郢门山。江上几人在，天涯孤棹还。何当重相见，樽酒慰离颜。</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>李静 等．唐诗宋词鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>一丘常欲卧，三径苦无资。北土非吾愿，东林怀我师。黄金燃桂尽，壮志逐年衰。日夕凉风至，闻蝉但益悲。</t>
+          <t>吾爱孟夫子，风流天下闻。红颜弃轩冕，白首卧松云。 醉月频中圣，迷花不事君。高山安可仰，徒此揖清芬。</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>人民文学出版社编辑部．唐诗三百首详析</t>
+          <t>郁贤皓 编选．李白集．南京</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>韦庄</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>人事有代谢，往来成古今。江山留胜迹，我辈复登临。水落鱼梁浅，天寒梦泽深。羊公碑尚在，读罢泪沾襟。(尚在 一作：字在)</t>
+          <t>清瑟怨遥夜，绕弦风雨哀。孤灯闻楚角，残月下章台。芳草已云暮，故人殊未来。乡书不可寄，秋雁又南回。</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>雅瑟．唐诗三百首鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>高阁客竟去，小园花乱飞。参差连曲陌，迢递送斜晖。肠断未忍扫，眼穿仍欲归。芳心向春尽，所得是沾衣。</t>
+          <t>青山横北郭，白水绕东城。此地一为别，孤蓬万里征。浮云游子意，落日故人情。挥手自兹去，萧萧班马鸣。</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>田梦．李商隐诗集 插图本．济南</t>
+          <t>李白 著 詹福瑞 等 编．李白诗全译</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>戍鼓断人行，边秋一雁声。(边秋 一作:秋边)露从今夜白，月是故乡明。有弟皆分散，无家问死生。寄书长不达，况乃未休兵。</t>
+          <t>花隐掖垣暮，啾啾栖鸟过。星临万户动，月傍九霄多。 不寝听金钥，因风想玉珂。明朝有封事，数问夜如何。</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>余建忠 ．中国古代诗词译赏 ．昆明市</t>
+          <t>吴小林 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>故关衰草遍，离别自堪悲。(自堪悲 一作：正堪悲)路出寒云外，人归暮雪时。少孤为客早，多难识君迟。掩泪空相向，风尘何处期。(掩泪 一作：掩泣)</t>
+          <t>江汉曾为客，相逢每醉还。浮云一别后，流水十年间。欢笑情如旧，萧疏鬓已斑。何因不归去？淮上有秋山。</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>韩翃</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>长簟迎风早，空城澹月华。星河秋一雁，砧杵夜千家。 节候看应晚，心期卧亦赊。向来吟秀句，不觉已鸣鸦。</t>
+          <t>昔闻洞庭水，今上岳阳楼。吴楚东南坼，乾坤日夜浮。亲朋无一字，老病有孤舟。戎马关山北，凭轩涕泗流。</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>赵昌平．唐诗三百首全解</t>
+          <t>马玮．中国古典诗词名家菁华赏析·杜甫</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>司空曙</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>今夜鄜州月，闺中只独看。遥怜小儿女，未解忆长安。香雾云鬟湿，清辉玉臂寒。何时倚虚幌，双照泪痕干。</t>
+          <t>静夜四无邻，荒居旧业贫。雨中黄叶树，灯下白头人。以我独沉久，愧君相见频。平生自有分，况是蔡家亲。</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>李渗．杜甫诗集选．武汉</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>清川带长薄，车马去闲闲。流水如有意，暮禽相与还。荒城临古渡，落日满秋山。迢递嵩高下，归来且闭关。</t>
+          <t>牛渚西江夜，青天无片云。登舟望秋月，空忆谢将军。余亦能高咏，斯人不可闻。明朝挂帆席，枫叶落纷纷。(席 一作：去)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>邓安生 等．王维诗选译．成都</t>
+          <t>郁贤皓．李白集．南京</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>许浑</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>寒山转苍翠，秋水日潺湲。倚杖柴门外，临风听暮蝉。渡头馀落日，墟里上孤烟。(馀 一作：余)复值接舆醉，狂歌五柳前。</t>
+          <t>遥夜泛清瑟，西风生翠萝。残萤委玉露，早雁拂金河。(委 一作：栖)高树晓还密，远山晴更多。淮南一叶下，自觉洞庭波。(洞庭波 一作：老烟波)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>联步趋丹陛，分曹限紫微。晓随天仗入，暮惹御香归。白发悲花落，青云羡鸟飞。圣朝无阙事，自觉谏书稀。</t>
+          <t>残阳西入崦，茅屋访孤僧。落叶人何在，寒云路几层。 独敲初夜磬，闲倚一枝藤。世界微尘里，吾宁爱与憎。</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>安焕章编著·李商隐诗歌导读</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>宋之问</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>阳月南飞雁，传闻至此回。我行殊未已，何日复归来。江静潮初落，林昏瘴不开。明朝望乡处，应见陇头梅。</t>
+          <t>清川带长薄，车马去闲闲。流水如有意，暮禽相与还。荒城临古渡，落日满秋山。迢递嵩高下，归来且闭关。</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>张国举 等．唐诗精华注译评．长春</t>
+          <t>邓安生 等．王维诗选译．成都</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>张乔</t>
+          <t>李益</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>调角断清秋，征人倚戍楼。春风对青冢，白日落梁州。大漠无兵阻，穷边有客游。蕃情似此水，长愿向南流。</t>
+          <t>十年离乱后，长大一相逢。问姓惊初见，称名忆旧容。别来沧海事，语罢暮天钟。明日巴陵道，秋山又几重。</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>皎然</t>
+          <t>马戴</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>移家虽带郭，野径入桑麻。近种篱边菊，秋来未著花。扣门无犬吠，欲去问西家。报道山中去，归时每日斜。(归时 一作：归来)</t>
+          <t>灞原风雨定，晚见雁行频。落叶他乡树，寒灯独夜人。空园白露滴，孤壁野僧邻。寄卧郊扉久，何年致此身。</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>崔涂</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>迢递三巴路，羁危万里身。乱山残雪夜，孤烛异乡人。(异乡人 一作：异乡春)渐与骨肉远，转于僮仆亲。那堪正飘泊，明日岁华新。</t>
+          <t>一路经行处，莓苔见履痕。白云依静渚，春草闭闲门。过雨看松色，随山到水源。溪花与禅意，相对亦忘言。</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>韩成武·唐诗三百首赏析·石家庄</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>故人具鸡黍，邀我至田家。绿树村边合，青山郭外斜。开轩面场圃，把酒话桑麻。待到重阳日，还来就菊花。</t>
+          <t>中岁颇好道，晚家南山陲。兴来每独往，胜事空自知。行到水穷处，坐看云起时。偶然值林叟，谈笑无还期。</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>高惠瑢．唐代诗歌鉴赏．上海</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>钱起</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>上国随缘住，来途若梦行。浮天沧海远，去世法舟轻。水月通禅寂，鱼龙听梵声。惟怜一灯影，万里眼中明。</t>
+          <t>戍鼓断人行，边秋一雁声。(边秋 一作:秋边)露从今夜白，月是故乡明。有弟皆分散，无家问死生。寄书长不达，况乃未休兵。</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>余建忠 ．中国古代诗词译赏 ．昆明市</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>古台摇落后，秋日望乡心。(秋日 一作：秋入)野寺来人少，云峰隔水深。夕阳依旧垒，寒磬满空林。惆怅南朝事，长江独至今。</t>
+          <t>故关衰草遍，离别自堪悲。(自堪悲 一作：正堪悲)路出寒云外，人归暮雪时。少孤为客早，多难识君迟。掩泪空相向，风尘何处期。(掩泪 一作：掩泣)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>此道昔归顺，西郊胡正繁。至今残破胆，应有未招魂。近侍归京邑，移官岂至尊。无才日衰老，驻马望千门。</t>
+          <t>本以高难饱，徒劳恨费声。五更疏欲断，一树碧无情。薄宦梗犹泛，故园芜已平。烦君最相警，我亦举家清。</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>吉林大学中文系．唐诗鉴赏大典（五）</t>
+          <t>马玮. 李商隐诗歌赏析[M]. 北京</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>张九龄</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>海上生明月，天涯共此时。情人怨遥夜，竟夕起相思。灭烛怜光满，披衣觉露滋。不堪盈手赠，还寝梦佳期。</t>
+          <t>林卧愁春尽，搴帷览物华。忽逢青鸟使，邀入赤松家。金灶初开火，仙桃正发花。童颜若可驻，何惜醉流霞。</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>梁川 等 ．唐诗三百首鉴赏 ．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -3980,12 +3980,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>望君烟水阔，挥手泪沾巾。飞鸟没何处，青山空向人。长江一帆远，落日五湖春。谁见汀洲上，相思愁白蘋。</t>
+          <t>流落征南将，曾驱十万师。罢归无旧业，老去恋明时。独立三边静，轻生一剑知。茫茫江汉上，日暮欲何之。</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>白居易</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>离离原上草，一岁一枯荣。野火烧不尽，春风吹又生。远芳侵古道，晴翠接荒城。又送王孙去，萋萋满别情。</t>
+          <t>今夜鄜州月，闺中只独看。遥怜小儿女，未解忆长安。香雾云鬟湿，清辉玉臂寒。何时倚虚幌，双照泪痕干。</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>李渗．杜甫诗集选．武汉</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>许浑</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>楚塞三湘接，荆门九派通。江流天地外，山色有无中。郡邑浮前浦，波澜动远空。襄阳好风日，留醉与山翁。</t>
+          <t>红叶晚萧萧，长亭酒一瓢。残云归太华，疏雨过中条。树色随山迥，河声入海遥。(随山 一作：随关)帝乡明日到，犹自梦渔樵。</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>楚江微雨里，建业暮钟时。漠漠帆来重，冥冥鸟去迟。海门深不见，浦树远含滋。相送情无限，沾襟比散丝。</t>
+          <t>故人具鸡黍，邀我至田家。绿树村边合，青山郭外斜。开轩面场圃，把酒话桑麻。待到重阳日，还来就菊花。</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>高惠瑢．唐代诗歌鉴赏．上海</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>国破山河在，城春草木深。感时花溅泪，恨别鸟惊心。烽火连三月，家书抵万金。白头搔更短，浑欲不胜簪。</t>
+          <t>山暝听猿愁，沧江急夜流。风鸣两岸叶，月照一孤舟。建德非吾土，维扬忆旧游。还将两行泪，遥寄海西头。</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>王伟．品经典 悟人生 诗词撷英卷．青岛市</t>
+          <t>张晓蕾，张志烈编著·唐诗品读</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>许浑</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>遥夜泛清瑟，西风生翠萝。残萤委玉露，早雁拂金河。(委 一作：栖)高树晓还密，远山晴更多。淮南一叶下，自觉洞庭波。(洞庭波 一作：老烟波)</t>
+          <t>细草微风岸，危樯独夜舟。星垂平野阔，月涌大江流。名岂文章著，官应老病休。飘飘何所似，天地一沙鸥。</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>陈才智．杜甫</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>杜审言</t>
+          <t>钱起</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>独有宦游人，偏惊物候新。云霞出海曙，梅柳渡江春。淑气催黄鸟，晴光转绿蘋。忽闻歌古调，归思欲沾巾。(巾 一作：襟)</t>
+          <t>泉壑带茅茨，云霞生薜帷。竹怜新雨后，山爱夕阳时。闲鹭栖常早，秋花落更迟。家僮扫萝径，昨与故人期。</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>马戴</t>
+          <t>张九龄</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>露气寒光集，微阳下楚丘。猿啼洞庭树，人在木兰舟。广泽生明月，苍山夹乱流。云中君不见，竟夕自悲秋。</t>
+          <t>海上生明月，天涯共此时。情人怨遥夜，竟夕起相思。灭烛怜光满，披衣觉露滋。不堪盈手赠，还寝梦佳期。</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>梁川 等 ．唐诗三百首鉴赏 ．北京</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>刘昚虚</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>晚年唯好静，万事不关心。(唯 一作：惟)自顾无长策，空知返旧林。松风吹解带，山月照弹琴。君问穷通理，渔歌入浦深。</t>
+          <t>道由白云尽，春与青溪长。时有落花至，远随流水香。闲门向山路，深柳读书堂。幽映每白日，清辉照衣裳。</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>沙灵娜·唐诗三百首全译·贵阳</t>
+          <t>沙灵娜．唐诗三百首全译．贵阳</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>温庭筠</t>
+          <t>韩翃</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>荒戍落黄叶，浩然离故关。高风汉阳渡，初日郢门山。江上几人在，天涯孤棹还。何当重相见，樽酒慰离颜。</t>
+          <t>长簟迎风早，空城澹月华。星河秋一雁，砧杵夜千家。 节候看应晚，心期卧亦赊。向来吟秀句，不觉已鸣鸦。</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>李静 等．唐诗宋词鉴赏大全集．北京</t>
+          <t>赵昌平．唐诗三百首全解</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>戴叔伦</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4250,12 +4250,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>客去波平槛，蝉休露满枝。永怀当此节，倚立自移时。北斗兼春远，南陵寓使迟。天涯占梦数，疑误有新知。</t>
+          <t>天秋月又满，城阙夜千重。还作江南会，翻疑梦里逢。风枝惊暗鹊，露草泣寒蛩。(泣 一作：覆)羁旅长堪醉，相留畏晓钟。</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>陈伯海 等．唐诗鉴赏辞典．上海</t>
+          <t>李 森．精译赏析唐诗三百首．北京</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>刘昚虚</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>道由白云尽，春与青溪长。时有落花至，远随流水香。闲门向山路，深柳读书堂。幽映每白日，清辉照衣裳。</t>
+          <t>高阁客竟去，小园花乱飞。参差连曲陌，迢递送斜晖。肠断未忍扫，眼穿仍欲归。芳心向春尽，所得是沾衣。</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>沙灵娜．唐诗三百首全译．贵阳</t>
+          <t>田梦．李商隐诗集 插图本．济南</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>木落雁南度，北风江上寒。我家襄水曲，遥隔楚云端。乡泪客中尽，孤帆天际看。(孤帆 一作：归帆)迷津欲有问，平海夕漫漫。</t>
+          <t>空山新雨后，天气晚来秋。明月松间照，清泉石上流。竹喧归浣女，莲动下渔舟。随意春芳歇，王孙自可留。</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>邓安生 孙佩君．孟浩然诗选译．成都</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>张籍</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>前年戍月支，城下没全师。(戍 一作：伐；城下 一作：城上)蕃汉断消息，死生长别离。 无人收废帐，归马识残旗。欲祭疑君在，天涯哭此时。</t>
+          <t>寂寂竟何待，朝朝空自归。欲寻芳草去，惜与故人违。当路谁相假，知音世所稀。只应守寂寞，还掩故园扉。(寂 一作：索)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>《古代汉语字典》编委会 ．古代汉语字典 ．北京</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>本以高难饱，徒劳恨费声。五更疏欲断，一树碧无情。薄宦梗犹泛，故园芜已平。烦君最相警，我亦举家清。</t>
+          <t>八月湖水平，涵虚混太清。气蒸云梦泽，波撼岳阳城。欲济无舟楫，端居耻圣明。坐观垂钓者，徒有羡鱼情。</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>马玮. 李商隐诗歌赏析[M]. 北京</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>骆宾王</t>
+          <t>皎然</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4385,12 +4385,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>西陆蝉声唱，南冠客思深。(客思深 一作：客思侵)那堪玄鬓影，来对白头吟。(那堪 一作：不堪)露重飞难进，风多响易沉。无人信高洁，谁为表予心？</t>
+          <t>移家虽带郭，野径入桑麻。近种篱边菊，秋来未著花。扣门无犬吠，欲去问西家。报道山中去，归时每日斜。(归时 一作：归来)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>沈熙乾 等．唐诗鉴赏辞典．上海</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>常建</t>
+          <t>马戴</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>清晨入古寺，初日照高林。曲径通幽处，禅房花木深。(曲 一作：竹)山光悦鸟性，潭影空人心。万籁此都寂，但余钟磬音。(都寂 一作：俱寂；但余 一作：惟余)</t>
+          <t>露气寒光集，微阳下楚丘。猿啼洞庭树，人在木兰舟。广泽生明月，苍山夹乱流。云中君不见，竟夕自悲秋。</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4439,12 +4439,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>流落征南将，曾驱十万师。罢归无旧业，老去恋明时。独立三边静，轻生一剑知。茫茫江汉上，日暮欲何之。</t>
+          <t>木落雁南度，北风江上寒。我家襄水曲，遥隔楚云端。乡泪客中尽，孤帆天际看。(孤帆 一作：归帆)迷津欲有问，平海夕漫漫。</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
+          <t>邓安生 孙佩君．孟浩然诗选译．成都</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>戴叔伦</t>
+          <t>崔涂</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4466,12 +4466,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>天秋月又满，城阙夜千重。还作江南会，翻疑梦里逢。风枝惊暗鹊，露草泣寒蛩。(泣 一作：覆)羁旅长堪醉，相留畏晓钟。</t>
+          <t>迢递三巴路，羁危万里身。乱山残雪夜，孤烛异乡人。(异乡人 一作：异乡春)渐与骨肉远，转于僮仆亲。那堪正飘泊，明日岁华新。</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>李 森．精译赏析唐诗三百首．北京</t>
+          <t>韩成武·唐诗三百首赏析·石家庄</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>李益</t>
+          <t>张籍</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>十年离乱后，长大一相逢。问姓惊初见，称名忆旧容。别来沧海事，语罢暮天钟。明日巴陵道，秋山又几重。</t>
+          <t>前年戍月支，城下没全师。(戍 一作：伐；城下 一作：城上)蕃汉断消息，死生长别离。 无人收废帐，归马识残旗。欲祭疑君在，天涯哭此时。</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李隆基</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>花隐掖垣暮，啾啾栖鸟过。星临万户动，月傍九霄多。 不寝听金钥，因风想玉珂。明朝有封事，数问夜如何。</t>
+          <t>夫子何为者，栖栖一代中。地犹鄹氏邑，宅即鲁王宫。叹凤嗟身否，伤麟怨道穷。今看两楹奠，当与梦时同。</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>吴小林 等．唐诗鉴赏辞典．上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>刘禹锡</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4547,12 +4547,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>天地英雄气，千秋尚凛然。(天地 一作：天下)势分三足鼎，业复五铢钱。 得相能开国，生儿不象贤。凄凉蜀故妓，来舞魏宫前。</t>
+          <t>乡心新岁切，天畔独潸然。老至居人下，春归在客先。岭猿同旦暮，江柳共风烟。已似长沙傅，从今又几年。</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>梁守中．刘禹锡诗文选译．成都</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>杜荀鹤</t>
+          <t>骆宾王</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4574,12 +4574,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>早被婵娟误，欲妆临镜慵。承恩不在貌，教妾若为容。 风暖鸟声碎，日高花影重。年年越溪女，相忆采芙蓉。</t>
+          <t>西陆蝉声唱，南冠客思深。(客思深 一作：客思侵)那堪玄鬓影，来对白头吟。(那堪 一作：不堪)露重飞难进，风多响易沉。无人信高洁，谁为表予心？</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>沈熙乾 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>许浑</t>
+          <t>钱起</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4601,12 +4601,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>红叶晚萧萧，长亭酒一瓢。残云归太华，疏雨过中条。树色随山迥，河声入海遥。(随山 一作：随关)帝乡明日到，犹自梦渔樵。</t>
+          <t>上国随缘住，来途若梦行。浮天沧海远，去世法舟轻。水月通禅寂，鱼龙听梵声。惟怜一灯影，万里眼中明。</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>韦庄</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>清瑟怨遥夜，绕弦风雨哀。孤灯闻楚角，残月下章台。芳草已云暮，故人殊未来。乡书不可寄，秋雁又南回。</t>
+          <t>国破山河在，城春草木深。感时花溅泪，恨别鸟惊心。烽火连三月，家书抵万金。白头搔更短，浑欲不胜簪。</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>王伟．品经典 悟人生 诗词撷英卷．青岛市</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>江汉曾为客，相逢每醉还。浮云一别后，流水十年间。欢笑情如旧，萧疏鬓已斑。何因不归去？淮上有秋山。</t>
+          <t>人事有代谢，往来成古今。江山留胜迹，我辈复登临。水落鱼梁浅，天寒梦泽深。羊公碑尚在，读罢泪沾襟。(尚在 一作：字在)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>雅瑟．唐诗三百首鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -4682,12 +4682,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>寂寂竟何待，朝朝空自归。欲寻芳草去，惜与故人违。当路谁相假，知音世所稀。只应守寂寞，还掩故园扉。(寂 一作：索)</t>
+          <t>一丘常欲卧，三径苦无资。北土非吾愿，东林怀我师。黄金燃桂尽，壮志逐年衰。日夕凉风至，闻蝉但益悲。</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>《古代汉语字典》编委会 ．古代汉语字典 ．北京</t>
+          <t>人民文学出版社编辑部．唐诗三百首详析</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>杜牧</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4709,12 +4709,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>旅馆无良伴，凝情自悄然。寒灯思旧事，断雁警愁眠。远梦归侵晓，家书到隔年。沧江好烟月，门系钓鱼船。</t>
+          <t>古台摇落后，秋日望乡心。(秋日 一作：秋入)野寺来人少，云峰隔水深。夕阳依旧垒，寒磬满空林。惆怅南朝事，长江独至今。</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>赵昌平·唐诗三百首全解</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>常建</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4736,12 +4736,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>一路经行处，莓苔见履痕。白云依静渚，春草闭闲门。过雨看松色，随山到水源。溪花与禅意，相对亦忘言。</t>
+          <t>清晨入古寺，初日照高林。曲径通幽处，禅房花木深。(曲 一作：竹)山光悦鸟性，潭影空人心。万籁此都寂，但余钟磬音。(都寂 一作：俱寂；但余 一作：惟余)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>钱起</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>泉壑带茅茨，云霞生薜帷。竹怜新雨后，山爱夕阳时。闲鹭栖常早，秋花落更迟。家僮扫萝径，昨与故人期。</t>
+          <t>凉风起天末，君子意如何。鸿雁几时到，江湖秋水多。文章憎命达，魑魅喜人过。应共冤魂语，投诗赠汨罗。</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>白居易</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>自河南经乱，关内阻饥，兄弟离散，各在一处。因望月有感，聊书所怀，寄上浮梁大兄、於潜七兄、乌江十五兄，兼示符离及下邽弟妹。时难年荒世业空，弟兄羁旅各西东。田园寥落干戈后，骨肉流离道路中。吊影分为千里雁，辞根散作九秋蓬。共看明月应垂泪，一夜乡心五处同。</t>
+          <t>锦瑟无端五十弦，一弦一柱思华年。庄生晓梦迷蝴蝶，望帝春心托杜鹃。沧海月明珠有泪，蓝田日暖玉生烟。此情可待成追忆，只是当时已惘然。</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>吉林大学中文系．唐诗鉴赏大典（十）</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>昨夜星辰昨夜风，画楼西畔桂堂东。身无彩凤双飞翼，心有灵犀一点通。隔座送钩春酒暖，分曹射覆蜡灯红。嗟余听鼓应官去，走马兰台类转蓬。</t>
+          <t>积雨空林烟火迟，蒸藜炊黍饷东菑。漠漠水田飞白鹭，阴阴夏木啭黄鹂。山中习静观朝槿，松下清斋折露葵。野老与人争席罢，海鸥何事更相疑。</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>怅卧新春白袷衣，白门寥落意多违。红楼隔雨相望冷，珠箔飘灯独自归。远路应悲春晼晚，残宵犹得梦依稀。玉珰缄札何由达，万里云罗一雁飞。</t>
+          <t>相见时难别亦难，东风无力百花残。春蚕到死丝方尽，蜡炬成灰泪始干。晓镜但愁云鬓改，夜吟应觉月光寒。蓬山此去无多路，青鸟殷勤为探看。(蓬山 一作：蓬莱)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>刘俊.李商隐《春雨》赏析[J].文学教育(上),2010(12):80-81</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>岁暮阴阳催短景，天涯霜雪霁寒宵。五更鼓角声悲壮，三峡星河影动摇。野哭千家闻战伐，夷歌数处起渔樵。(千家 一作：几家)卧龙跃马终黄土，人事音书漫寂寥。(音书 一作：依依)</t>
+          <t>紫泉宫殿锁烟霞，欲取芜城作帝家。玉玺不缘归日角，锦帆应是到天涯。于今腐草无萤火，终古垂杨有暮鸦。地下若逢陈后主，岂宜重问后庭花。</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>海兵．杜甫诗全集详注．乌鲁木齐</t>
+          <t>韩成武．唐诗三百首赏析</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>闲坐悲君亦自悲，百年都是几多时。邓攸无子寻知命，潘岳悼亡犹费词。同穴窅冥何所望，他生缘会更难期。惟将终夜长开眼，报答平生未展眉。</t>
+          <t>谢公最小偏怜女，自嫁黔娄百事乖。顾我无衣搜荩箧，泥他沽酒拔金钗。(荩箧 一作：画箧)野蔬充膳甘长藿，落叶添薪仰古槐。今日俸钱过十万，与君营奠复营斋。</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>重帏深下莫愁堂，卧后清宵细细长。神女生涯原是梦，小姑居处本无郎。风波不信菱枝弱，月露谁教桂叶香。直道相思了无益，未妨惆怅是清狂。</t>
+          <t>洞门高阁霭馀辉，桃李阴阴柳絮飞。禁里疏钟官舍晚，省中啼鸟吏人稀。晨摇玉佩趋金殿，夕奉天书拜琐闱。强欲从君无那老，将因卧病解朝衣。</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>周振甫 注·李商隐诗选集·南京</t>
+          <t>《唐诗鉴赏辞典》.上海辞书出版社，1983年12月版，第168-169页</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>支离东北风尘际，漂泊西南天地间。三峡楼台淹日月，五溪衣服共云山。羯胡事主终无赖，词客哀时且未还。庾信平生最萧瑟，暮年诗赋动江关。</t>
+          <t>摇落深知宋玉悲，风流儒雅亦吾师。怅望千秋一洒泪，萧条异代不同时。江山故宅空文藻，云雨荒台岂梦思。最是楚宫俱泯灭，舟人指点到今疑。</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>白居易</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4979,12 +4979,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>鸡鸣紫陌曙光寒，莺啭皇州春色阑。金阙晓钟开万户，玉阶仙仗拥千官。花迎剑佩星初落，柳拂旌旗露未干。独有凤凰池上客，阳春一曲和皆难。</t>
+          <t>自河南经乱，关内阻饥，兄弟离散，各在一处。因望月有感，聊书所怀，寄上浮梁大兄、於潜七兄、乌江十五兄，兼示符离及下邽弟妹。时难年荒世业空，弟兄羁旅各西东。田园寥落干戈后，骨肉流离道路中。吊影分为千里雁，辞根散作九秋蓬。共看明月应垂泪，一夜乡心五处同。</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>江龙．唐诗三百首鉴赏辞典</t>
+          <t>吉林大学中文系．唐诗鉴赏大典（十）</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>渭水自萦秦塞曲，黄山旧绕汉宫斜。銮舆迥出千门柳，阁道回看上苑花。云里帝城双凤阙，雨中春树万人家。为乘阳气行时令，不是宸游玩物华。(玩 一作：重)</t>
+          <t>鸡鸣紫陌曙光寒，莺啭皇州春色阑。金阙晓钟开万户，玉阶仙仗拥千官。花迎剑佩星初落，柳拂旌旗露未干。独有凤凰池上客，阳春一曲和皆难。</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>江龙．唐诗三百首鉴赏辞典</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>凤凰台上凤凰游，凤去台空江自流。吴宫花草埋幽径，晋代衣冠成古丘。三山半落青天外，二水中分白鹭洲。(二水 一作：一水)总为浮云能蔽日，长安不见使人愁。</t>
+          <t>岁暮阴阳催短景，天涯霜雪霁寒宵。五更鼓角声悲壮，三峡星河影动摇。野哭千家闻战伐，夷歌数处起渔樵。(千家 一作：几家)卧龙跃马终黄土，人事音书漫寂寥。(音书 一作：依依)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>袁行霈 等．唐诗鉴赏辞典．上海</t>
+          <t>海兵．杜甫诗全集详注．乌鲁木齐</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>风急天高猿啸哀，渚清沙白鸟飞回。无边落木萧萧下，不尽长江滚滚来。万里悲秋常作客，百年多病独登台。艰难苦恨繁霜鬓，潦倒新停浊酒杯。</t>
+          <t>凤凰台上凤凰游，凤去台空江自流。吴宫花草埋幽径，晋代衣冠成古丘。三山半落青天外，二水中分白鹭洲。(二水 一作：一水)总为浮云能蔽日，长安不见使人愁。</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>海兵．杜甫诗全集祥注</t>
+          <t>袁行霈 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>洞门高阁霭馀辉，桃李阴阴柳絮飞。禁里疏钟官舍晚，省中啼鸟吏人稀。晨摇玉佩趋金殿，夕奉天书拜琐闱。强欲从君无那老，将因卧病解朝衣。</t>
+          <t>剑外忽传收蓟北，初闻涕泪满衣裳。却看妻子愁何在，漫卷诗书喜欲狂。白日放歌须纵酒，青春作伴好还乡。即从巴峡穿巫峡，便下襄阳向洛阳。</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>《唐诗鉴赏辞典》.上海辞书出版社，1983年12月版，第168-169页</t>
+          <t>程千帆 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>高适</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>嗟君此别意何如，驻马衔杯问谪居。巫峡啼猿数行泪，衡阳归雁几封书。青枫江上秋帆远，白帝城边古木疏。圣代即今多雨露，暂时分手莫踌躇。</t>
+          <t>猿鸟犹疑畏简书，风云常为护储胥。徒令上将挥神笔，终见降王走传车。管乐有才原不忝，关张无命欲何如？他年锦里经祠庙，梁父吟成恨有余。</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>（清）蘅塘退士选编；毛治中注释．唐诗三百首．杭州</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>崔颢</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>昔人已乘黄鹤去，此地空余黄鹤楼。黄鹤一去不复返，白云千载空悠悠。晴川历历汉阳树，芳草萋萋鹦鹉洲。日暮乡关何处是？烟波江上使人愁。</t>
+          <t>花近高楼伤客心，万方多难此登临。锦江春色来天地，玉垒浮云变古今。北极朝廷终不改，西山寇盗莫相侵。可怜后主还祠庙，日暮聊为《梁甫吟》。(梁甫 一作：梁父)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>啄言主编．唐诗宋词原曲</t>
+          <t>吉林大学中文系·唐诗鉴赏大典（五）·长春</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>崔颢</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>去年花里逢君别，今日花开又一年。(又一年 一作：已一年)世事茫茫难自料，春愁黯黯独成眠。身多疾病思田里，邑有流亡愧俸钱。闻道欲来相问讯，西楼望月几回圆。</t>
+          <t>昔人已乘黄鹤去，此地空余黄鹤楼。黄鹤一去不复返，白云千载空悠悠。晴川历历汉阳树，芳草萋萋鹦鹉洲。日暮乡关何处是？烟波江上使人愁。</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>啄言主编．唐诗宋词原曲</t>
         </is>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>群山万壑赴荆门，生长明妃尚有村。一去紫台连朔漠，独留青冢向黄昏。画图省识春风面，环珮空归夜月魂。(夜月 一作：月夜)千载琵琶作胡语，分明怨恨曲中论。</t>
+          <t>清秋幕府井梧寒，独宿江城蜡炬残。永夜角声悲自语，中天月色好谁看。风尘荏苒音书绝，关塞萧条行路难。已忍伶俜十年事，强移栖息一枝安。</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>元稹</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>来是空言去绝踪，月斜楼上五更钟。梦为远别啼难唤，书被催成墨未浓。蜡照半笼金翡翠，麝熏微度绣芙蓉。刘郎已恨蓬山远，更隔蓬山一万重！</t>
+          <t>昔日戏言身后意，今朝都到眼前来。(身后意 一作：身后事)衣裳已施行看尽，针线犹存未忍开。尚想旧情怜婢仆，也曾因梦送钱财。诚知此恨人人有，贫贱夫妻百事哀。</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>汀洲无浪复无烟，楚客相思益渺然。汉口夕阳斜渡鸟，洞庭秋水远连天。孤城背岭寒吹角，独树临江夜泊船。(独树 一作：独戍)贾谊上书忧汉室，长沙谪去古今怜。</t>
+          <t>三年谪宦此栖迟，万古惟留楚客悲。秋草独寻人去后，寒林空见日斜时。汉文有道恩犹薄，湘水无情吊岂知？寂寂江山摇落处，怜君何事到天涯！</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>锦瑟无端五十弦，一弦一柱思华年。庄生晓梦迷蝴蝶，望帝春心托杜鹃。沧海月明珠有泪，蓝田日暖玉生烟。此情可待成追忆，只是当时已惘然。</t>
+          <t>怅卧新春白袷衣，白门寥落意多违。红楼隔雨相望冷，珠箔飘灯独自归。远路应悲春晼晚，残宵犹得梦依稀。玉珰缄札何由达，万里云罗一雁飞。</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>刘俊.李商隐《春雨》赏析[J].文学教育(上),2010(12):80-81</t>
         </is>
       </c>
     </row>
@@ -5330,12 +5330,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>相见时难别亦难，东风无力百花残。春蚕到死丝方尽，蜡炬成灰泪始干。晓镜但愁云鬓改，夜吟应觉月光寒。蓬山此去无多路，青鸟殷勤为探看。(蓬山 一作：蓬莱)</t>
+          <t>来是空言去绝踪，月斜楼上五更钟。梦为远别啼难唤，书被催成墨未浓。蜡照半笼金翡翠，麝熏微度绣芙蓉。刘郎已恨蓬山远，更隔蓬山一万重！</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>柳宗元</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>剑外忽传收蓟北，初闻涕泪满衣裳。却看妻子愁何在，漫卷诗书喜欲狂。白日放歌须纵酒，青春作伴好还乡。即从巴峡穿巫峡，便下襄阳向洛阳。</t>
+          <t>城上高楼接大荒，海天愁思正茫茫。惊风乱飐芙蓉水，密雨斜侵薜荔墙。岭树重遮千里目，江流曲似九回肠。共来百越文身地，犹自音书滞一乡。</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>程千帆 等．唐诗鉴赏辞典．上海</t>
+          <t>于丹．最美古诗词．北京</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>柳宗元</t>
+          <t>皇甫冉</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>城上高楼接大荒，海天愁思正茫茫。惊风乱飐芙蓉水，密雨斜侵薜荔墙。岭树重遮千里目，江流曲似九回肠。共来百越文身地，犹自音书滞一乡。</t>
+          <t>莺啼燕语报新年，马邑龙堆路几千。家住层城临汉苑，心随明月到胡天。(层城 一作：秦城)机中锦字论长恨，楼上花枝笑独眠。为问元戎窦车骑，何时返旆勒燕然。</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>于丹．最美古诗词．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -5411,12 +5411,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>舍南舍北皆春水，但见群鸥日日来。花径不曾缘客扫，蓬门今始为君开。盘飧市远无兼味，樽酒家贫只旧醅。肯与邻翁相对饮，隔篱呼取尽余杯。</t>
+          <t>群山万壑赴荆门，生长明妃尚有村。一去紫台连朔漠，独留青冢向黄昏。画图省识春风面，环珮空归夜月魂。(夜月 一作：月夜)千载琵琶作胡语，分明怨恨曲中论。</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>陈贻焮·杜甫评传（中）·北京</t>
+          <t>萧涤非．杜甫诗选注．北京</t>
         </is>
       </c>
     </row>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5438,12 +5438,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>猿鸟犹疑畏简书，风云常为护储胥。徒令上将挥神笔，终见降王走传车。管乐有才原不忝，关张无命欲何如？他年锦里经祠庙，梁父吟成恨有余。</t>
+          <t>舍南舍北皆春水，但见群鸥日日来。花径不曾缘客扫，蓬门今始为君开。盘飧市远无兼味，樽酒家贫只旧醅。肯与邻翁相对饮，隔篱呼取尽余杯。</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>（清）蘅塘退士选编；毛治中注释．唐诗三百首．杭州</t>
+          <t>陈贻焮·杜甫评传（中）·北京</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5465,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>苏武魂销汉使前，古祠高树两茫然。云边雁断胡天月，陇上羊归塞草烟。回日楼台非甲帐，去时冠剑是丁年。茂陵不见封侯印，空向秋波哭逝川。</t>
+          <t>澹然空水带斜晖，曲岛苍茫接翠微。(带 一作：对)波上马嘶看棹去，柳边人歇待船归。数丛沙草群鸥散，万顷江田一鹭飞。谁解乘舟寻范蠡，五湖烟水独忘机。</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
+          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>皇甫冉</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>莺啼燕语报新年，马邑龙堆路几千。家住层城临汉苑，心随明月到胡天。(层城 一作：秦城)机中锦字论长恨，楼上花枝笑独眠。为问元戎窦车骑，何时返旆勒燕然。</t>
+          <t>风急天高猿啸哀，渚清沙白鸟飞回。无边落木萧萧下，不尽长江滚滚来。万里悲秋常作客，百年多病独登台。艰难苦恨繁霜鬓，潦倒新停浊酒杯。</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>海兵．杜甫诗全集祥注</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>花近高楼伤客心，万方多难此登临。锦江春色来天地，玉垒浮云变古今。北极朝廷终不改，西山寇盗莫相侵。可怜后主还祠庙，日暮聊为《梁甫吟》。(梁甫 一作：梁父)</t>
+          <t>渭水自萦秦塞曲，黄山旧绕汉宫斜。銮舆迥出千门柳，阁道回看上苑花。云里帝城双凤阙，雨中春树万人家。为乘阳气行时令，不是宸游玩物华。(玩 一作：重)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>吉林大学中文系·唐诗鉴赏大典（五）·长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>崔曙</t>
+          <t>元稹</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>汉文皇帝有高台，此日登临曙色开。三晋云山皆北向，二陵风雨自东来。关门令尹谁能识，河上仙翁去不回。且欲近寻彭泽宰，陶然共醉菊花杯。</t>
+          <t>闲坐悲君亦自悲，百年都是几多时。邓攸无子寻知命，潘岳悼亡犹费词。同穴窅冥何所望，他生缘会更难期。惟将终夜长开眼，报答平生未展眉。</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>任犀然．唐诗三百首</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>李颀</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>云开远见汉阳城，犹是孤帆一日程。估客昼眠知浪静，舟人夜语觉潮生。三湘衰鬓逢秋色，万里归心对月明。旧业已随征战尽，更堪江上鼓鼙声。</t>
+          <t>朝闻游子唱离歌，昨夜微霜初渡河。鸿雁不堪愁里听，云山况是客中过。关城树色催寒近，御苑砧声向晚多。(树 一作：曙)莫见长安行乐处，空令岁月易蹉跎。</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>祖咏</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5600,12 +5600,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>燕台一望客心惊，笳鼓喧喧汉将营。(一望 一作：一去；笳鼓 一作：箫鼓)万里寒光生积雪，三边曙色动危旌。沙场烽火连胡月，海畔云山拥蓟城。(连胡月 一作：侵胡月)少小虽非投笔吏，论功还欲请长缨。</t>
+          <t>凤尾香罗薄几重，碧文圆顶夜深缝。扇裁月魄羞难掩，车走雷声语未通。曾是寂寥金烬暗，断无消息石榴红。斑骓只系垂杨岸，何处西南任好风。(任 一作：待)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>周振甫 注·李商隐诗选集·南京</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5627,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>丞相祠堂何处寻？锦官城外柏森森。映阶碧草自春色，隔叶黄鹂空好音。三顾频烦天下计，两朝开济老臣心。出师未捷身先死，长使英雄泪满襟。</t>
+          <t>蜀主窥吴幸三峡，崩年亦在永安宫。(窥 一作：征)翠华想像空山里，玉殿虚无野寺中。古庙杉松巢水鹤，岁时伏腊走村翁。武侯祠屋常邻近，一体君臣祭祀同。</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>萧涤非．杜甫诗选注．北京</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5654,12 +5654,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>绛帻鸡人报晓筹，尚衣方进翠云裘。九天阊阖开宫殿，万国衣冠拜冕旒。日色才临仙掌动，香烟欲傍衮龙浮。朝罢须裁五色诏，佩声归到凤池头。</t>
+          <t>去年花里逢君别，今日花开又一年。(又一年 一作：已一年)世事茫茫难自料，春愁黯黯独成眠。身多疾病思田里，邑有流亡愧俸钱。闻道欲来相问讯，西楼望月几回圆。</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>三年谪宦此栖迟，万古惟留楚客悲。秋草独寻人去后，寒林空见日斜时。汉文有道恩犹薄，湘水无情吊岂知？寂寂江山摇落处，怜君何事到天涯！</t>
+          <t>昨夜星辰昨夜风，画楼西畔桂堂东。身无彩凤双飞翼，心有灵犀一点通。隔座送钩春酒暖，分曹射覆蜡灯红。嗟余听鼓应官去，走马兰台类转蓬。</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>薛逢</t>
+          <t>崔颢</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>十二楼中尽晓妆，望仙楼上望君王。锁衔金兽连环冷，水滴铜龙昼漏长。云髻罢梳还对镜，罗衣欲换更添香。遥窥正殿帘开处，袍袴宫人扫御床。</t>
+          <t>岧峣太华俯咸京，天外三峰削不成。武帝祠前云欲散，仙人掌上雨初晴。河山北枕秦关险，驿路西连汉畤平。借问路旁名利客，何如此处学长生。(何 一作：无)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5735,12 +5735,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>凤尾香罗薄几重，碧文圆顶夜深缝。扇裁月魄羞难掩，车走雷声语未通。曾是寂寥金烬暗，断无消息石榴红。斑骓只系垂杨岸，何处西南任好风。(任 一作：待)</t>
+          <t>云开远见汉阳城，犹是孤帆一日程。估客昼眠知浪静，舟人夜语觉潮生。三湘衰鬓逢秋色，万里归心对月明。旧业已随征战尽，更堪江上鼓鼙声。</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>周振甫 注·李商隐诗选集·南京</t>
+          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>秦韬玉</t>
+          <t>钱起</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>蓬门未识绮罗香，拟托良媒益自伤。谁爱风流高格调，共怜时世俭梳妆。敢将十指夸针巧，不把双眉斗画长。苦恨年年压金线，为他人作嫁衣裳。</t>
+          <t>二月黄莺飞上林，春城紫禁晓阴阴。(黄莺 一作：黄鹂)长乐钟声花外尽，龙池柳色雨中深。阳和不散穷途恨，霄汉长怀捧日心。献赋十年犹未遇，羞将白发对华簪。</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>元稹</t>
+          <t>秦韬玉</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5789,12 +5789,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>昔日戏言身后意，今朝都到眼前来。(身后意 一作：身后事)衣裳已施行看尽，针线犹存未忍开。尚想旧情怜婢仆，也曾因梦送钱财。诚知此恨人人有，贫贱夫妻百事哀。</t>
+          <t>蓬门未识绮罗香，拟托良媒益自伤。谁爱风流高格调，共怜时世俭梳妆。敢将十指夸针巧，不把双眉斗画长。苦恨年年压金线，为他人作嫁衣裳。</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>温庭筠</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>澹然空水带斜晖，曲岛苍茫接翠微。(带 一作：对)波上马嘶看棹去，柳边人歇待船归。数丛沙草群鸥散，万顷江田一鹭飞。谁解乘舟寻范蠡，五湖烟水独忘机。</t>
+          <t>汀洲无浪复无烟，楚客相思益渺然。汉口夕阳斜渡鸟，洞庭秋水远连天。孤城背岭寒吹角，独树临江夜泊船。(独树 一作：独戍)贾谊上书忧汉室，长沙谪去古今怜。</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>刘禹锡</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>王濬楼船下益州，金陵王气黯然收。(王濬 一作：西晋)千寻铁锁沉江底，一片降幡出石头。人世几回伤往事，山形依旧枕寒流。今逢四海为家日，故垒萧萧芦荻秋。</t>
+          <t>丞相祠堂何处寻？锦官城外柏森森。映阶碧草自春色，隔叶黄鹂空好音。三顾频烦天下计，两朝开济老臣心。出师未捷身先死，长使英雄泪满襟。</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>徐中玉 金启华．中国古代文学作品选．上海</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>高适</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>西山白雪三城戍，南浦清江万里桥。海内风尘诸弟隔，天涯涕泪一身遥。惟将迟暮供多病，未有涓埃答圣朝。(惟 通：唯)跨马出郊时极目，不堪人事日萧条。</t>
+          <t>嗟君此别意何如，驻马衔杯问谪居。巫峡啼猿数行泪，衡阳归雁几封书。青枫江上秋帆远，白帝城边古木疏。圣代即今多雨露，暂时分手莫踌躇。</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>方青羽·唐诗三百首彩图馆</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>积雨空林烟火迟，蒸藜炊黍饷东菑。漠漠水田飞白鹭，阴阴夏木啭黄鹂。山中习静观朝槿，松下清斋折露葵。野老与人争席罢，海鸥何事更相疑。</t>
+          <t>绛帻鸡人报晓筹，尚衣方进翠云裘。九天阊阖开宫殿，万国衣冠拜冕旒。日色才临仙掌动，香烟欲傍衮龙浮。朝罢须裁五色诏，佩声归到凤池头。</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>韩翃</t>
+          <t>崔曙</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>仙台初见五城楼，风物凄凄宿雨收。(初见 一作：下见)山色遥连秦树晚，砧声近报汉宫秋。疏松影落空坛静，细草香闲小洞幽。(闲 一作：生)何用别寻方外去，人间亦自有丹丘。</t>
+          <t>汉文皇帝有高台，此日登临曙色开。三晋云山皆北向，二陵风雨自东来。关门令尹谁能识，河上仙翁去不回。且欲近寻彭泽宰，陶然共醉菊花杯。</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>任犀然．唐诗三百首</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>温庭筠</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>紫泉宫殿锁烟霞，欲取芜城作帝家。玉玺不缘归日角，锦帆应是到天涯。于今腐草无萤火，终古垂杨有暮鸦。地下若逢陈后主，岂宜重问后庭花。</t>
+          <t>苏武魂销汉使前，古祠高树两茫然。云边雁断胡天月，陇上羊归塞草烟。回日楼台非甲帐，去时冠剑是丁年。茂陵不见封侯印，空向秋波哭逝川。</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>韩成武．唐诗三百首赏析</t>
+          <t>刘学锴 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>摇落深知宋玉悲，风流儒雅亦吾师。怅望千秋一洒泪，萧条异代不同时。江山故宅空文藻，云雨荒台岂梦思。最是楚宫俱泯灭，舟人指点到今疑。</t>
+          <t>支离东北风尘际，漂泊西南天地间。三峡楼台淹日月，五溪衣服共云山。羯胡事主终无赖，词客哀时且未还。庾信平生最萧瑟，暮年诗赋动江关。</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>薛逢</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6005,12 +6005,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>清秋幕府井梧寒，独宿江城蜡炬残。永夜角声悲自语，中天月色好谁看。风尘荏苒音书绝，关塞萧条行路难。已忍伶俜十年事，强移栖息一枝安。</t>
+          <t>十二楼中尽晓妆，望仙楼上望君王。锁衔金兽连环冷，水滴铜龙昼漏长。云髻罢梳还对镜，罗衣欲换更添香。遥窥正殿帘开处，袍袴宫人扫御床。</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>萧涤非．杜甫诗选注．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>崔颢</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>岧峣太华俯咸京，天外三峰削不成。武帝祠前云欲散，仙人掌上雨初晴。河山北枕秦关险，驿路西连汉畤平。借问路旁名利客，何如此处学长生。(何 一作：无)</t>
+          <t>诸葛大名垂宇宙，宗臣遗像肃清高。三分割据纡筹策，万古云霄一羽毛。伯仲之间见伊吕，指挥若定失萧曹。运移汉祚终难复，志决身歼军务劳。</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
+          <t>萧涤非．杜甫诗选注．北京</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>刘长卿</t>
+          <t>祖咏</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>生涯岂料承优诏，世事空知学醉歌。江上月明胡雁过，淮南木落楚山多。寄身且喜沧洲近，顾影无如白发何。今日龙钟人共弃，愧君犹遣慎风波。(弃 一作：老)</t>
+          <t>燕台一望客心惊，笳鼓喧喧汉将营。(一望 一作：一去；笳鼓 一作：箫鼓)万里寒光生积雪，三边曙色动危旌。沙场烽火连胡月，海畔云山拥蓟城。(连胡月 一作：侵胡月)少小虽非投笔吏，论功还欲请长缨。</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>金性尧．唐诗三百首新注</t>
+          <t>沈熙乾 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>钱起</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6086,12 +6086,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>二月黄莺飞上林，春城紫禁晓阴阴。(黄莺 一作：黄鹂)长乐钟声花外尽，龙池柳色雨中深。阳和不散穷途恨，霄汉长怀捧日心。献赋十年犹未遇，羞将白发对华簪。</t>
+          <t>重帏深下莫愁堂，卧后清宵细细长。神女生涯原是梦，小姑居处本无郎。风波不信菱枝弱，月露谁教桂叶香。直道相思了无益，未妨惆怅是清狂。</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>萧涤非 等．唐诗鉴赏辞典．上海</t>
+          <t>周振甫 注·李商隐诗选集·南京</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>韩翃</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6113,12 +6113,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>诸葛大名垂宇宙，宗臣遗像肃清高。三分割据纡筹策，万古云霄一羽毛。伯仲之间见伊吕，指挥若定失萧曹。运移汉祚终难复，志决身歼军务劳。</t>
+          <t>仙台初见五城楼，风物凄凄宿雨收。(初见 一作：下见)山色遥连秦树晚，砧声近报汉宫秋。疏松影落空坛静，细草香闲小洞幽。(闲 一作：生)何用别寻方外去，人间亦自有丹丘。</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>萧涤非．杜甫诗选注．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>刘长卿</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>蜀主窥吴幸三峡，崩年亦在永安宫。(窥 一作：征)翠华想像空山里，玉殿虚无野寺中。古庙杉松巢水鹤，岁时伏腊走村翁。武侯祠屋常邻近，一体君臣祭祀同。</t>
+          <t>生涯岂料承优诏，世事空知学醉歌。江上月明胡雁过，淮南木落楚山多。寄身且喜沧洲近，顾影无如白发何。今日龙钟人共弃，愧君犹遣慎风波。(弃 一作：老)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>萧涤非．杜甫诗选注．北京</t>
+          <t>金性尧．唐诗三百首新注</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>元稹</t>
+          <t>刘禹锡</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6167,12 +6167,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>谢公最小偏怜女，自嫁黔娄百事乖。顾我无衣搜荩箧，泥他沽酒拔金钗。(荩箧 一作：画箧)野蔬充膳甘长藿，落叶添薪仰古槐。今日俸钱过十万，与君营奠复营斋。</t>
+          <t>王濬楼船下益州，金陵王气黯然收。(王濬 一作：西晋)千寻铁锁沉江底，一片降幡出石头。人世几回伤往事，山形依旧枕寒流。今逢四海为家日，故垒萧萧芦荻秋。</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>徐中玉 金启华．中国古代文学作品选．上海</t>
         </is>
       </c>
     </row>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>李颀</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>朝闻游子唱离歌，昨夜微霜初渡河。鸿雁不堪愁里听，云山况是客中过。关城树色催寒近，御苑砧声向晚多。(树 一作：曙)莫见长安行乐处，空令岁月易蹉跎。</t>
+          <t>西山白雪三城戍，南浦清江万里桥。海内风尘诸弟隔，天涯涕泪一身遥。惟将迟暮供多病，未有涓埃答圣朝。(惟 通：唯)跨马出郊时极目，不堪人事日萧条。</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>方青羽·唐诗三百首彩图馆</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6221,12 +6221,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>岱宗夫如何？齐鲁青未了。造化钟神秀，阴阳割昏晓。荡胸生曾云，决眦入归鸟。( 曾 同：层)会当凌绝顶，一览众山小。</t>
+          <t>斜阳照墟落，穷巷牛羊归。(斜阳 一作：斜光)野老念牧童，倚杖候荆扉。雉雊麦苗秀，蚕眠桑叶稀。田夫荷锄至，相见语依依。(至 一作：立)即此羡闲逸，怅然吟式微。</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>李渗．杜甫诗集选</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>燕草如碧丝，秦桑低绿枝。当君怀归日，是妾断肠时。 春风不相识，何事入罗帏。</t>
+          <t>岱宗夫如何？齐鲁青未了。造化钟神秀，阴阳割昏晓。荡胸生曾云，决眦入归鸟。( 曾 同：层)会当凌绝顶，一览众山小。</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>李渗．杜甫诗集选</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>夕阳度西岭，群壑倏已暝。松月生夜凉，风泉满清听。樵人归欲尽，烟鸟栖初定。之子期宿来，孤琴候萝径。</t>
+          <t>死别已吞声，生别常恻恻。江南瘴疠地，逐客无消息。故人入我梦，明我长相忆。君今在罗网，何以有羽翼？恐非平生魂，路远不可测。魂来枫林青，魂返关塞黑。落月满屋梁，犹疑照颜色。水深波浪阔，无使蛟龙得。</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>浮云终日行，游子久不至。三夜频梦君，情亲见君意。告归常局促，苦道来不易。江湖多风波，舟楫恐失坠。出门搔白首，若负平生志。冠盖满京华，斯人独憔悴。孰云网恢恢，将老身反累。千秋万岁名，寂寞身后事。</t>
+          <t>暮从碧山下，山月随人归。却顾所来径，苍苍横翠微。相携及田家，童稚开荆扉。绿竹入幽径，青萝拂行衣。欢言得所憩，美酒聊共挥。长歌吟松风，曲尽河星稀。我醉君复乐，陶然共忘机。</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>萧涤非．杜甫诗选注．北京</t>
+          <t>郁贤皓·李白集·南京</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>死别已吞声，生别常恻恻。江南瘴疠地，逐客无消息。故人入我梦，明我长相忆。君今在罗网，何以有羽翼？恐非平生魂，路远不可测。魂来枫林青，魂返关塞黑。落月满屋梁，犹疑照颜色。水深波浪阔，无使蛟龙得。</t>
+          <t>高卧南斋时，开帷月初吐。清辉澹水木，演漾在窗户。冉冉几盈虚，澄澄变今古。(冉冉 一作：荏苒)美人清江畔，是夜越吟苦。千里共如何，微风吹兰杜。(共 一作：其)</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>永日方戚戚，出行复悠悠。女子今有行，大江溯轻舟。尔辈苦无恃，抚念益慈柔。幼为长所育，两别泣不休。对此结中肠，义往难复留。自小阙内训，事姑贻我忧。赖兹托令门，任恤庶无尤。贫俭诚所尚，资从岂待周。孝恭遵妇道，容止顺其猷。别离在今晨，见尔当何秋。居闲始自遣，临感忽难收。归来视幼女，零泪缘缨流。</t>
+          <t>人生不相见，动如参与商。今夕复何夕，共此灯烛光。少壮能几时，鬓发各已苍。访旧半为鬼，惊呼热中肠。焉知二十载，重上君子堂。昔别君未婚，儿女忽成行。怡然敬父执，问我来何方。问答乃未已，驱儿罗酒浆。(乃未已 一作：未及已；驱儿 一作：儿女)夜雨剪春韭，新炊间黄粱。主称会面难，一举累十觞。十觞亦不醉，感子故意长。明日隔山岳，世事两茫茫。</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>江南有丹橘，经冬犹绿林。岂伊地气暖？自有岁寒心。可以荐嘉客，奈何阻重深。运命惟所遇，循环不可寻。徒言树桃李，此木岂无阴？</t>
+          <t>兰叶春葳蕤，桂华秋皎洁。欣欣此生意，自尔为佳节。谁知林栖者，闻风坐相悦。草木有本心，何求美人折！</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>丘为</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6410,12 +6410,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>绝顶一茅茨，直上三十里。扣关无僮仆，窥室唯案几。若非巾柴车，应是钓秋水。差池不相见，黾勉空仰止。草色新雨中，松声晚窗里。及兹契幽绝，自足荡心耳。虽无宾主意，颇得清净理。兴尽方下山，何必待之子。</t>
+          <t>北山白云里，隐者自怡悦。相望试登高，心随雁飞灭。(试 一作 始)愁因薄暮起，兴是清秋发。时见归村人，沙行渡头歇。(沙行 一作：沙平)天边树若荠，江畔洲如月。(洲 一作：舟)何当载酒来，共醉重阳节。</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>张国举 等．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6437,12 +6437,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>落帆逗淮镇，停舫临孤驿。浩浩风起波，冥冥日沉夕。人归山郭暗，雁下芦洲白。独夜忆秦关，听钟未眠客。</t>
+          <t>下马饮君酒，问君何所之？君言不得意，归卧南山陲。但去莫复问，白云无尽时。</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士．唐诗三百首</t>
         </is>
       </c>
     </row>
@@ -6454,509 +6454,509 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>李白</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>花间一壶酒，独酌无相亲。举杯邀明月，对影成三人。月既不解饮，影徒随我身。暂伴月将影，行乐须及春。我歌月徘徊，我舞影零乱。醒时同交欢，醉后各分散。(同交欢 一作：相交欢)永结无情游，相期邈云汉。</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>王维</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>圣代无隐者，英灵尽来归。遂令东山客，不得顾采薇。既至金门远，孰云吾道非。(金门 一作：君门)江淮度寒食，京洛缝春衣。置酒长安道，同心与我违。行当浮桂棹，未几拂荆扉。远树带行客，孤村当落晖。(孤村 一作：孤城)吾谋适不用，勿谓知音稀。</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>杜甫</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>绝代有佳人，幽居在空谷。自云良家子，零落依草木。关中昔丧乱，兄弟遭杀戮。官高何足论，不得收骨肉。世情恶衰歇，万事随转烛。夫婿轻薄儿，新人美如玉。合昏尚知时，鸳鸯不独宿。但见新人笑，那闻旧人哭。在山泉水清，出山泉水浊。侍婢卖珠回，牵萝补茅屋。摘花不插发，采柏动盈掬。天寒翠袖薄，日暮倚修竹。</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>萧涤非 ．杜甫诗选注 ．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>孟浩然</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>夕阳度西岭，群壑倏已暝。松月生夜凉，风泉满清听。樵人归欲尽，烟鸟栖初定。之子期宿来，孤琴候萝径。</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>周啸天 等．唐诗鉴赏辞典补编．成都</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>张九龄</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>幽人归独卧，滞虑洗孤清。持此谢高鸟，因之传远情。日夕怀空意，人谁感至精？飞沉理自隔，何所慰吾诚？</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>韦应物</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>客从东方来，衣上灞陵雨。问客何为来，采山因买斧。冥冥花正开，飏飏燕新乳。昨别今已春，鬓丝生几缕。</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>张九龄</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>江南有丹橘，经冬犹绿林。岂伊地气暖？自有岁寒心。可以荐嘉客，奈何阻重深。运命惟所遇，循环不可寻。徒言树桃李，此木岂无阴？</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>常建</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>清溪深不测，隐处唯孤云。松际露微月，清光犹为君。茅亭宿花影，药院滋苔纹。余亦谢时去，西山鸾鹤群。</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>韦应物</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>兵卫森画戟，宴寝凝清香。海上风雨至，逍遥池阁凉。烦疴近消散，嘉宾复满堂。自惭居处崇，未睹斯民康。理会是非遣，性达形迹忘。鲜肥属时禁，蔬果幸见尝。俯饮一杯酒，仰聆金玉章。神欢体自轻，意欲凌风翔。吴中盛文史，群彦今汪洋。方知大藩地，岂曰财赋疆。</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>丘为</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>绝顶一茅茨，直上三十里。扣关无僮仆，窥室唯案几。若非巾柴车，应是钓秋水。差池不相见，黾勉空仰止。草色新雨中，松声晚窗里。及兹契幽绝，自足荡心耳。虽无宾主意，颇得清净理。兴尽方下山，何必待之子。</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>綦毋潜</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>幽意无断绝，此去随所偶。晚风吹行舟，花路入溪口。际夜转西壑，隔山望南斗。潭烟飞溶溶，林月低向后。生事且弥漫，愿为持竿叟。</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>韦应物</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>今朝郡斋冷，忽念山中客。涧底束荆薪，归来煮白石。欲持一瓢酒，远慰风雨夕。落叶满空山，何处寻行迹。</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>韦应物</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>吏舍跼终年，出郊旷清曙。杨柳散和风，青山澹吾虑。依丛适自憩，缘涧还复去。微雨霭芳原，春鸠鸣何处。乐幽心屡止，遵事迹犹遽。终罢斯结庐，慕陶直可庶。</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>陶敏 王友胜．韦应物诗选</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>杜甫</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>浮云终日行，游子久不至。三夜频梦君，情亲见君意。告归常局促，苦道来不易。江湖多风波，舟楫恐失坠。出门搔白首，若负平生志。冠盖满京华，斯人独憔悴。孰云网恢恢，将老身反累。千秋万岁名，寂寞身后事。</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>萧涤非．杜甫诗选注．北京</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>王维</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>艳色天下重，西施宁久微。朝为越溪女，暮作吴宫妃。贱日岂殊众，贵来方悟稀。邀人傅脂粉，不自著罗衣。君宠益娇态，君怜无是非。当时浣纱伴，莫得同车归。持谢邻家子，效颦安可希。</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>邓安生 等·王维诗选译·成都</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>韦应物</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>落帆逗淮镇，停舫临孤驿。浩浩风起波，冥冥日沉夕。人归山郭暗，雁下芦洲白。独夜忆秦关，听钟未眠客。</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>暂无参考资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>岑参</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>塔势如涌出，孤高耸天宫。登临出世界，磴道盘虚空。突兀压神州，峥嵘如鬼工。四角碍白日，七层摩苍穹。下窥指高鸟，俯听闻惊风。连山若波涛，奔凑似朝东。(凑 一作：走；似 一作：如)青槐夹驰道，宫馆何玲珑。(馆 一作：观)秋色从西来，苍然满关中。五陵北原上，万古青濛濛。净理了可悟，胜因夙所宗。誓将挂冠去，觉道资无穷。</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>周啸天 等 ．唐诗鉴赏辞典补编 ．成都</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>王维</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>言入黄花川，每逐青溪水。随山将万转，趣途无百里。声喧乱石中，色静深松里。漾漾泛菱荇，澄澄映葭苇。我心素已闲，清川澹如此。请留磐石上，垂钓将已矣。(磐石 一作：盘石)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>赵明华．唐诗原来可以这样读．哈尔滨</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>五言古诗</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>元结</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>唐代</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
         <is>
           <t>癸卯岁，西原贼入道县，焚烧杀掠，几尽而去。明年，贼又攻永破邵，不犯此州边鄙而退。岂力能制敌与？盖蒙其伤怜而已。诸使何为忍苦征敛，故作诗一篇以示官吏。
 昔岁逢太平，山林二十年。泉源在庭户，洞壑当门前。井税有常期，日晏犹得眠。忽然遭世变，数岁亲戎旃。今来典斯郡，山夷又纷然。城小贼不屠，人贫伤可怜。是以陷邻境，此州独见全。使臣将王命，岂不如贼焉？今彼征敛者，迫之如火煎。谁能绝人命，以作时世贤！思欲委符节，引竿自刺船。将家就鱼麦，归老江湖边。</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>岑参</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>塔势如涌出，孤高耸天宫。登临出世界，磴道盘虚空。突兀压神州，峥嵘如鬼工。四角碍白日，七层摩苍穹。下窥指高鸟，俯听闻惊风。连山若波涛，奔凑似朝东。(凑 一作：走；似 一作：如)青槐夹驰道，宫馆何玲珑。(馆 一作：观)秋色从西来，苍然满关中。五陵北原上，万古青濛濛。净理了可悟，胜因夙所宗。誓将挂冠去，觉道资无穷。</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>周啸天 等 ．唐诗鉴赏辞典补编 ．成都</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>杜甫</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>人生不相见，动如参与商。今夕复何夕，共此灯烛光。少壮能几时，鬓发各已苍。访旧半为鬼，惊呼热中肠。焉知二十载，重上君子堂。昔别君未婚，儿女忽成行。怡然敬父执，问我来何方。问答乃未已，驱儿罗酒浆。(乃未已 一作：未及已；驱儿 一作：儿女)夜雨剪春韭，新炊间黄粱。主称会面难，一举累十觞。十觞亦不醉，感子故意长。明日隔山岳，世事两茫茫。</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>李白</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>暮从碧山下，山月随人归。却顾所来径，苍苍横翠微。相携及田家，童稚开荆扉。绿竹入幽径，青萝拂行衣。欢言得所憩，美酒聊共挥。长歌吟松风，曲尽河星稀。我醉君复乐，陶然共忘机。</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>郁贤皓·李白集·南京</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>孟浩然</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>北山白云里，隐者自怡悦。相望试登高，心随雁飞灭。(试 一作 始)愁因薄暮起，兴是清秋发。时见归村人，沙行渡头歇。(沙行 一作：沙平)天边树若荠，江畔洲如月。(洲 一作：舟)何当载酒来，共醉重阳节。</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>张国举 等．唐诗精华注译评．长春</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>王维</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>言入黄花川，每逐青溪水。随山将万转，趣途无百里。声喧乱石中，色静深松里。漾漾泛菱荇，澄澄映葭苇。我心素已闲，清川澹如此。请留磐石上，垂钓将已矣。(磐石 一作：盘石)</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>赵明华．唐诗原来可以这样读．哈尔滨</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>常建</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>清溪深不测，隐处唯孤云。松际露微月，清光犹为君。茅亭宿花影，药院滋苔纹。余亦谢时去，西山鸾鹤群。</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>孟浩然</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>山光忽西落，池月渐东上。散发乘夕凉，开轩卧闲敞。荷风送香气，竹露滴清响。欲取鸣琴弹，恨无知音赏。感此怀故人，中宵劳梦想。(中 一作：终)</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>张国举 等．唐诗精华注译评．长春</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>韦应物</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>吏舍跼终年，出郊旷清曙。杨柳散和风，青山澹吾虑。依丛适自憩，缘涧还复去。微雨霭芳原，春鸠鸣何处。乐幽心屡止，遵事迹犹遽。终罢斯结庐，慕陶直可庶。</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>陶敏 王友胜．韦应物诗选</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>韦应物</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>兵卫森画戟，宴寝凝清香。海上风雨至，逍遥池阁凉。烦疴近消散，嘉宾复满堂。自惭居处崇，未睹斯民康。理会是非遣，性达形迹忘。鲜肥属时禁，蔬果幸见尝。俯饮一杯酒，仰聆金玉章。神欢体自轻，意欲凌风翔。吴中盛文史，群彦今汪洋。方知大藩地，岂曰财赋疆。</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>王维</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>斜阳照墟落，穷巷牛羊归。(斜阳 一作：斜光)野老念牧童，倚杖候荆扉。雉雊麦苗秀，蚕眠桑叶稀。田夫荷锄至，相见语依依。(至 一作：立)即此羡闲逸，怅然吟式微。</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>张国举．唐诗精华注译评．长春</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>王维</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>艳色天下重，西施宁久微。朝为越溪女，暮作吴宫妃。贱日岂殊众，贵来方悟稀。邀人傅脂粉，不自著罗衣。君宠益娇态，君怜无是非。当时浣纱伴，莫得同车归。持谢邻家子，效颦安可希。</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>赵明华 ．唐诗原来可以这样读</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>张九龄</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>孤鸿海上来，池潢不敢顾。侧见双翠鸟，巢在三珠树。矫矫珍木巅，得无金丸惧？美服患人指，高明逼神恶。今我游冥冥，弋者何所慕！</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>王维</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>下马饮君酒，问君何所之？君言不得意，归卧南山陲。但去莫复问，白云无尽时。</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>蘅塘退士．唐诗三百首</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>王昌龄</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>高卧南斋时，开帷月初吐。清辉澹水木，演漾在窗户。冉冉几盈虚，澄澄变今古。(冉冉 一作：荏苒)美人清江畔，是夜越吟苦。千里共如何，微风吹兰杜。(共 一作：其)</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>柳宗元</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>汲井漱寒齿，清心拂尘服。闲持贝叶书，步出东斋读。真源了无取，妄迹世所逐。遗言冀可冥，缮性何由熟。道人庭宇静，苔色连深竹。日出雾露馀，青松如膏沐。澹然离言说，悟悦心自足。</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>王维</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>圣代无隐者，英灵尽来归。遂令东山客，不得顾采薇。既至金门远，孰云吾道非。(金门 一作：君门)江淮度寒食，京洛缝春衣。置酒长安道，同心与我违。行当浮桂棹，未几拂荆扉。远树带行客，孤村当落晖。(孤村 一作：孤城)吾谋适不用，勿谓知音稀。</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>韦应物</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>客从东方来，衣上灞陵雨。问客何为来，采山因买斧。冥冥花正开，飏飏燕新乳。昨别今已春，鬓丝生几缕。</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>五言古诗</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>张九龄</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>唐代</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>幽人归独卧，滞虑洗孤清。持此谢高鸟，因之传远情。日夕怀空意，人谁感至精？飞沉理自隔，何所慰吾诚？</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -6978,12 +6978,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>花间一壶酒，独酌无相亲。举杯邀明月，对影成三人。月既不解饮，影徒随我身。暂伴月将影，行乐须及春。我歌月徘徊，我舞影零乱。醒时同交欢，醉后各分散。(同交欢 一作：相交欢)永结无情游，相期邈云汉。</t>
+          <t>燕草如碧丝，秦桑低绿枝。当君怀归日，是妾断肠时。 春风不相识，何事入罗帏。</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>韦应物</t>
+          <t>柳宗元</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>凄凄去亲爱，泛泛入烟雾。归棹洛阳人，残钟广陵树。今朝此为别，何处还相遇。世事波上舟，沿洄安得住。</t>
+          <t>汲井漱寒齿，清心拂尘服。闲持贝叶书，步出东斋读。真源了无取，妄迹世所逐。遗言冀可冥，缮性何由熟。道人庭宇静，苔色连深竹。日出雾露馀，青松如膏沐。澹然离言说，悟悦心自足。</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>柳宗元</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>久为簪组累，幸此南夷谪。(累 一作：束)闲依农圃邻，偶似山林客。 晓耕翻露草，夜榜响溪石。来往不逢人，长歌楚天碧。</t>
+          <t>山光忽西落，池月渐东上。散发乘夕凉，开轩卧闲敞。荷风送香气，竹露滴清响。欲取鸣琴弹，恨无知音赏。感此怀故人，中宵劳梦想。(中 一作：终)</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>（清）蘅塘退士编选；方青羽编著·唐诗三百首彩图馆</t>
+          <t>张国举 等．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>张九龄</t>
+          <t>柳宗元</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>兰叶春葳蕤，桂华秋皎洁。欣欣此生意，自尔为佳节。谁知林栖者，闻风坐相悦。草木有本心，何求美人折！</t>
+          <t>久为簪组累，幸此南夷谪。(累 一作：束)闲依农圃邻，偶似山林客。 晓耕翻露草，夜榜响溪石。来往不逢人，长歌楚天碧。</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
+          <t>（清）蘅塘退士编选；方青羽编著·唐诗三百首彩图馆</t>
         </is>
       </c>
     </row>
@@ -7086,12 +7086,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>今朝郡斋冷，忽念山中客。涧底束荆薪，归来煮白石。欲持一瓢酒，远慰风雨夕。落叶满空山，何处寻行迹。</t>
+          <t>凄凄去亲爱，泛泛入烟雾。归棹洛阳人，残钟广陵树。今朝此为别，何处还相遇。世事波上舟，沿洄安得住。</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>韦应物</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>绝代有佳人，幽居在空谷。自云良家子，零落依草木。关中昔丧乱，兄弟遭杀戮。官高何足论，不得收骨肉。世情恶衰歇，万事随转烛。夫婿轻薄儿，新人美如玉。合昏尚知时，鸳鸯不独宿。但见新人笑，那闻旧人哭。在山泉水清，出山泉水浊。侍婢卖珠回，牵萝补茅屋。摘花不插发，采柏动盈掬。天寒翠袖薄，日暮倚修竹。</t>
+          <t>永日方戚戚，出行复悠悠。女子今有行，大江溯轻舟。尔辈苦无恃，抚念益慈柔。幼为长所育，两别泣不休。对此结中肠，义往难复留。自小阙内训，事姑贻我忧。赖兹托令门，任恤庶无尤。贫俭诚所尚，资从岂待周。孝恭遵妇道，容止顺其猷。别离在今晨，见尔当何秋。居闲始自遣，临感忽难收。归来视幼女，零泪缘缨流。</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>萧涤非 ．杜甫诗选注 ．北京</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>綦毋潜</t>
+          <t>张九龄</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>幽意无断绝，此去随所偶。晚风吹行舟，花路入溪口。际夜转西壑，隔山望南斗。潭烟飞溶溶，林月低向后。生事且弥漫，愿为持竿叟。</t>
+          <t>孤鸿海上来，池潢不敢顾。侧见双翠鸟，巢在三珠树。矫矫珍木巅，得无金丸惧？美服患人指，高明逼神恶。今我游冥冥，弋者何所慕！</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>白居易</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7167,12 +7167,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>我本楚狂人，凤歌笑孔丘。手持绿玉杖，朝别黄鹤楼。五岳寻仙不辞远，一生好入名山游。庐山秀出南斗傍，屏风九叠云锦张，影落明湖青黛光。金阙前开二峰长，银河倒挂三石梁，香炉瀑布遥相望，回崖沓嶂凌苍苍。翠影红霞映朝日，鸟飞不到吴天长。登高壮观天地间，大江茫茫去不还。黄云万里动风色，白波九道流雪山。好为庐山谣，兴因庐山发。闲窥石镜清我心，谢公行处苍苔没。早服还丹无世情，琴心三叠道初成。遥见仙人彩云里，手把芙蓉朝玉京。先期汗漫九垓上，愿接卢敖游太清。</t>
+          <t>元和十年，予左迁九江郡司马。明年秋，送客湓浦口，闻舟中夜弹琵琶者，听其音，铮铮然有京都声。问其人，本长安倡女，尝学琵琶于穆、曹二善才，年长色衰，委身为贾人妇。遂命酒，使快弹数曲。曲罢悯然，自叙少小时欢乐事，今漂沦憔悴，转徙于江湖间。予出官二年，恬然自安，感斯人言，是夕始觉有迁谪意。因为长句，歌以赠之，凡六百一十六言，命曰《琵琶行》。浔阳江头夜送客，枫叶荻花秋瑟瑟。主人下马客在船，举酒欲饮无管弦。醉不成欢惨将别，别时茫茫江浸月。忽闻水上琵琶声，主人忘归客不发。寻声暗问弹者谁，琵琶声停欲语迟。移船相近邀相见，添酒回灯重开宴。千呼万唤始出来，犹抱琵琶半遮面。转轴拨弦三两声，未成曲调先有情。弦弦掩抑声声思，似诉平生不得志。低眉信手续续弹，说尽心中无限事。轻拢慢捻抹复挑，初为《霓裳》后《六幺》。(六幺 一作：绿腰)大弦嘈嘈如急雨，小弦切切如私语。嘈嘈切切错杂弹，大珠小珠落玉盘。间关莺语花底滑，幽咽泉流冰下难。冰泉冷涩弦凝绝，凝绝不通声暂歇。(暂歇 一作：渐歇)别有幽愁暗恨生，此时无声胜有声。银瓶乍破水浆迸，铁骑突出刀枪鸣。曲终收拨当心画，四弦一声如裂帛。东船西舫悄无言，唯见江心秋月白。沉吟放拨插弦中，整顿衣裳起敛容。自言本是京城女，家在虾蟆陵下住。十三学得琵琶成，名属教坊第一部。曲罢曾教善才服，妆成每被秋娘妒。(服 一作：伏)五陵年少争缠头，一曲红绡不知数。钿头银篦击节碎，血色罗裙翻酒污。(银篦 一作：云篦)今年欢笑复明年，秋月春风等闲度。弟走从军阿姨死，暮去朝来颜色故。门前冷落鞍马稀，老大嫁作商人妇。商人重利轻别离，前月浮梁买茶去。去来江口守空船，绕船月明江水寒。夜深忽梦少年事，梦啼妆泪红阑干。我闻琵琶已叹息，又闻此语重唧唧。同是天涯沦落人，相逢何必曾相识！我从去年辞帝京，谪居卧病浔阳城。浔阳地僻无音乐，终岁不闻丝竹声。住近湓江地低湿，黄芦苦竹绕宅生。其间旦暮闻何物？杜鹃啼血猿哀鸣。春江花朝秋月夜，往往取酒还独倾。岂无山歌与村笛，呕哑嘲哳难为听。今夜闻君琵琶语，如听仙乐耳暂明。莫辞更坐弹一曲，为君翻作《琵琶行》。感我此言良久立，却坐促弦弦转急。凄凄不似向前声，满座重闻皆掩泣。座中泣下谁最多？江州司马青衫湿。</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>何国治 等·唐诗鉴赏辞典·上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>白居易</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7194,12 +7194,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>弃我去者，昨日之日不可留；乱我心者，今日之日多烦忧。长风万里送秋雁，对此可以酣高楼。蓬莱文章建安骨，中间小谢又清发。俱怀逸兴壮思飞，欲上青天揽明月。(揽 一作：览；明月 一作：日月)抽刀断水水更流，举杯消愁愁更愁。(消愁 一作：销愁)人生在世不称意，明朝散发弄扁舟。</t>
+          <t>汉皇重色思倾国，御宇多年求不得。杨家有女初长成，养在深闺人未识。天生丽质难自弃，一朝选在君王侧。回眸一笑百媚生，六宫粉黛无颜色。春寒赐浴华清池，温泉水滑洗凝脂。侍儿扶起娇无力，始是新承恩泽时。云鬓花颜金步摇，芙蓉帐暖度春宵。春宵苦短日高起，从此君王不早朝。承欢侍宴无闲暇，春从春游夜专夜。后宫佳丽三千人，三千宠爱在一身。金屋妆成娇侍夜，玉楼宴罢醉和春。姊妹弟兄皆列土，可怜光彩生门户。遂令天下父母心，不重生男重生女。骊宫高处入青云，仙乐风飘处处闻。缓歌慢舞凝丝竹，尽日君王看不足。渔阳鼙鼓动地来，惊破霓裳羽衣曲。九重城阙烟尘生，千乘万骑西南行。翠华摇摇行复止，西出都门百余里。六军不发无奈何，宛转蛾眉马前死。花钿委地无人收，翠翘金雀玉搔头。君王掩面救不得，回看血泪相和流。黄埃散漫风萧索，云栈萦纡登剑阁。峨嵋山下少人行，旌旗无光日色薄。蜀江水碧蜀山青，圣主朝朝暮暮情。行宫见月伤心色，夜雨闻铃肠断声。天旋地转回龙驭，到此踌躇不能去。(地转 一作：日转)马嵬坡下泥土中，不见玉颜空死处。君臣相顾尽沾衣，东望都门信马归。归来池苑皆依旧，太液芙蓉未央柳。芙蓉如面柳如眉，对此如何不泪垂？春风桃李花开日，秋雨梧桐叶落时。(花开日 一作：花开夜)西宫南内多秋草，落叶满阶红不扫。(南内 一作：南苑)梨园弟子白发新，椒房阿监青娥老。夕殿萤飞思悄然，孤灯挑尽未成眠。迟迟钟鼓初长夜，耿耿星河欲曙天。鸳鸯瓦冷霜华重，翡翠衾寒谁与共？悠悠生死别经年，魂魄不曾来入梦。临邛道士鸿都客，能以精诚致魂魄。为感君王辗转思，遂教方士殷勤觅。排空驭气奔如电，升天入地求之遍。上穷碧落下黄泉，两处茫茫皆不见。忽闻海上有仙山，山在虚无缥缈间。楼阁玲珑五云起，其中绰约多仙子。中有一人字太真，雪肤花貌参差是。金阙西厢叩玉扃，转教小玉报双成。闻道汉家天子使，九华帐里梦魂惊。揽衣推枕起徘徊，珠箔银屏迤逦开。云鬓半偏新睡觉，花冠不整下堂来。(云鬓 一作：云髻)风吹仙袂飘飖举，犹似霓裳羽衣舞。(飘飖 一作：飘飘)玉容寂寞泪阑干，梨花一枝春带雨。(阑 通：栏)含情凝睇谢君王，一别音容两渺茫。昭阳殿里恩爱绝，蓬莱宫中日月长。回头下望人寰处，不见长安见尘雾。惟将旧物表深情，钿合金钗寄将去。钗留一股合一扇，钗擘黄金合分钿。但令心似金钿坚，天上人间会相见。(但令 一作：但教)临别殷勤重寄词，词中有誓两心知。七月七日长生殿，夜半无人私语时。在天愿作比翼鸟，在地愿为连理枝。天长地久有时尽，此恨绵绵无绝期。</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>裴斐 ．李白诗歌赏析集 ．成都</t>
+          <t>周啸天．唐诗鉴赏辞典</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>李颀</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>北风卷地白草折，胡天八月即飞雪。忽如一夜春风来，千树万树梨花开。散入珠帘湿罗幕，狐裘不暖锦衾薄。将军角弓不得控，都护铁衣冷难着。(难着 一作：犹著)瀚海阑干百丈冰，愁云惨淡万里凝。中军置酒饮归客，胡琴琵琶与羌笛。纷纷暮雪下辕门，风掣红旗冻不翻。轮台东门送君去，去时雪满天山路。山回路转不见君，雪上空留马行处。</t>
+          <t>南山截竹为觱篥，此乐本自龟兹出。流传汉地曲转奇，凉州胡人为我吹。傍邻闻者多叹息，远客思乡皆泪垂。世人解听不解赏，长飙风中自来往。枯桑老柏寒飕飗，九雏鸣凤乱啾啾。龙吟虎啸一时发，万籁百泉相与秋。忽然更作渔阳掺，黄云萧条白日暗。变调如闻杨柳春，上林繁花照眼新。岁夜高堂列明烛，美酒一杯声一曲。</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>周啸天 等．唐诗鉴赏辞典．上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>李颀</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7248,12 +7248,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>男儿事长征，少小幽燕客。赌胜马蹄下，由来轻七尺。杀人莫敢前，须如猬毛磔。黄云陇底白云飞，未得报恩不得归。辽东小妇年十五，惯弹琵琶解歌舞。今为羌笛出塞声，使我三军泪如雨。</t>
+          <t>海客谈瀛洲，烟涛微茫信难求；越人语天姥，云霞明灭或可睹。天姥连天向天横，势拔五岳掩赤城。天台四万八千丈，对此欲倒东南倾。(四万 一作：一万)我欲因之梦吴越，一夜飞度镜湖月。湖月照我影，送我至剡溪。谢公宿处今尚在，渌水荡漾清猿啼。脚著谢公屐，身登青云梯。半壁见海日，空中闻天鸡。千岩万转路不定，迷花倚石忽已暝。熊咆龙吟殷岩泉，栗深林兮惊层巅。云青青兮欲雨，水澹澹兮生烟。列缺霹雳，丘峦崩摧。洞天石扉，訇然中开。青冥浩荡不见底，日月照耀金银台。 霓为衣兮风为马，云之君兮纷纷而来下。虎鼓瑟兮鸾回车，仙之人兮列如麻。忽魂悸以魄动，恍惊起而长嗟。惟觉时之枕席，失向来之烟霞。世间行乐亦如此，古来万事东流水。别君去兮何时还？且放白鹿青崖间，须行即骑访名山。安能摧眉折腰事权贵，使我不得开心颜！</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>李商隐</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7275,12 +7275,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>君不见走马川行雪海边，平沙莽莽黄入天。 轮台九月风夜吼，一川碎石大如斗，随风满地石乱走。 匈奴草黄马正肥，金山西见烟尘飞，汉家大将西出师。 将军金甲夜不脱，半夜军行戈相拨，风头如刀面如割。 马毛带雪汗气蒸，五花连钱旋作冰，幕中草檄砚水凝。 虏骑闻之应胆慑，料知短兵不敢接，车师西门伫献捷。(车师 一作：军师)</t>
+          <t>元和天子神武姿，彼何人哉轩与羲。誓将上雪列圣耻，坐法宫中朝四夷。淮西有贼五十载，封狼生貙貙生罴。不据山河据平地，长戈利矛日可麾。帝得圣相相曰度，贼斫不死神扶持。腰悬相印作都统，阴风惨澹天王旗。愬武古通作牙爪，仪曹外郎载笔随。 行军司马智且勇，十四万众犹虎貔。入蔡缚贼献太庙，功无与让恩不訾。帝曰汝度功第一，汝从事愈宜为辞。愈拜稽首蹈且舞，金石刻画臣能为。古者世称大手笔，此事不系于职司。当仁自古有不让，言讫屡颔天子颐。公退斋戒坐小阁，濡染大笔何淋漓。点窜《尧典》《舜典》字，涂改《清庙》《生民》诗。文成破体书在纸，清晨再拜铺丹墀。表曰臣愈昧死上，咏神圣功书之碑。碑高三丈字如斗，负以灵鳌蟠以螭。句奇语重喻者少，谗之天子言其私。长绳百尺拽碑倒，粗砂大石相磨治。公之斯文若元气，先时已入人肝脾。汤盘孔鼎有述作，今无其器存其辞。呜呼圣王及圣相，相与烜赫流淳熙。公之斯文不示后，曷与三五相攀追。愿书万本诵万遍，口角流沫右手胝。传之七十有二代，以为封禅玉检明堂基。</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>韩愈</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7302,12 +7302,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>山石荦确行径微，黄昏到寺蝙蝠飞。升堂坐阶新雨足，芭蕉叶大栀子肥。僧言古壁佛画好，以火来照所见稀。铺床拂席置羹饭，疏粝亦足饱我饥。夜深静卧百虫绝，清月出岭光入扉。天明独去无道路，出入高下穷烟霏。山红涧碧纷烂漫，时见松枥皆十围。当流赤足踏涧石，水声激激风吹衣。人生如此自可乐，岂必局束为人鞿？嗟哉吾党二三子，安得至老不更归。</t>
+          <t>弃我去者，昨日之日不可留；乱我心者，今日之日多烦忧。长风万里送秋雁，对此可以酣高楼。蓬莱文章建安骨，中间小谢又清发。俱怀逸兴壮思飞，欲上青天揽明月。(揽 一作：览；明月 一作：日月)抽刀断水水更流，举杯消愁愁更愁。(消愁 一作：销愁)人生在世不称意，明朝散发弄扁舟。</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
+          <t>裴斐 ．李白诗歌赏析集 ．成都</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>白居易</t>
+          <t>元结</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>元和十年，予左迁九江郡司马。明年秋，送客湓浦口，闻舟中夜弹琵琶者，听其音，铮铮然有京都声。问其人，本长安倡女，尝学琵琶于穆、曹二善才，年长色衰，委身为贾人妇。遂命酒，使快弹数曲。曲罢悯然，自叙少小时欢乐事，今漂沦憔悴，转徙于江湖间。予出官二年，恬然自安，感斯人言，是夕始觉有迁谪意。因为长句，歌以赠之，凡六百一十六言，命曰《琵琶行》。浔阳江头夜送客，枫叶荻花秋瑟瑟。主人下马客在船，举酒欲饮无管弦。醉不成欢惨将别，别时茫茫江浸月。忽闻水上琵琶声，主人忘归客不发。寻声暗问弹者谁，琵琶声停欲语迟。移船相近邀相见，添酒回灯重开宴。千呼万唤始出来，犹抱琵琶半遮面。转轴拨弦三两声，未成曲调先有情。弦弦掩抑声声思，似诉平生不得志。低眉信手续续弹，说尽心中无限事。轻拢慢捻抹复挑，初为《霓裳》后《六幺》。(六幺 一作：绿腰)大弦嘈嘈如急雨，小弦切切如私语。嘈嘈切切错杂弹，大珠小珠落玉盘。间关莺语花底滑，幽咽泉流冰下难。冰泉冷涩弦凝绝，凝绝不通声暂歇。(暂歇 一作：渐歇)别有幽愁暗恨生，此时无声胜有声。银瓶乍破水浆迸，铁骑突出刀枪鸣。曲终收拨当心画，四弦一声如裂帛。东船西舫悄无言，唯见江心秋月白。沉吟放拨插弦中，整顿衣裳起敛容。自言本是京城女，家在虾蟆陵下住。十三学得琵琶成，名属教坊第一部。曲罢曾教善才服，妆成每被秋娘妒。(服 一作：伏)五陵年少争缠头，一曲红绡不知数。钿头银篦击节碎，血色罗裙翻酒污。(银篦 一作：云篦)今年欢笑复明年，秋月春风等闲度。弟走从军阿姨死，暮去朝来颜色故。门前冷落鞍马稀，老大嫁作商人妇。商人重利轻别离，前月浮梁买茶去。去来江口守空船，绕船月明江水寒。夜深忽梦少年事，梦啼妆泪红阑干。我闻琵琶已叹息，又闻此语重唧唧。同是天涯沦落人，相逢何必曾相识！我从去年辞帝京，谪居卧病浔阳城。浔阳地僻无音乐，终岁不闻丝竹声。住近湓江地低湿，黄芦苦竹绕宅生。其间旦暮闻何物？杜鹃啼血猿哀鸣。春江花朝秋月夜，往往取酒还独倾。岂无山歌与村笛，呕哑嘲哳难为听。今夜闻君琵琶语，如听仙乐耳暂明。莫辞更坐弹一曲，为君翻作《琵琶行》。感我此言良久立，却坐促弦弦转急。凄凄不似向前声，满座重闻皆掩泣。座中泣下谁最多？江州司马青衫湿。</t>
+          <t>漫叟以公田米酿酒，因休暇，则载酒于湖上，时取一醉。欢醉中，据湖岸，引臂向鱼取酒，使舫载之，遍饮坐者。意疑倚巴丘酌于君山之上，诸子环洞庭而坐，酒舫泛泛然触波涛。而往来者，乃作歌以长之。石鱼湖，似洞庭，夏水欲满君山青。山为樽，水为沼，酒徒历历坐洲岛。长风连日作大浪，不能废人运酒舫。我持长瓢坐巴丘，酌饮四坐以散愁。</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>孟浩然</t>
+          <t>李颀</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>山寺钟鸣昼已昏，渔梁渡头争渡喧。人随沙岸向江村，余亦乘舟归鹿门。鹿门月照开烟树，忽到庞公栖隐处。岩扉松径长寂寥，惟有幽人自来去。</t>
+          <t>主人有酒欢今夕，请奏鸣琴广陵客。月照城头乌半飞，霜凄万树风入衣。(万树 一作：万木)铜炉华烛烛增辉，初弹渌水后楚妃。一声已动物皆静，四座无言星欲稀。清淮奉使千余里，敢告云山从此始。</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>萧涤非．唐诗鉴赏辞典</t>
+          <t>赵昌平 ．唐诗三百首全解</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>孔明庙前有老柏，柯如青铜根如石。霜皮溜雨四十围，黛色参天二千尺。君臣已与时际会，树木犹为人爱惜。云来气接巫峡长，月出寒通雪山白。忆昨路绕锦亭东，先主武侯同閟宫。崔嵬枝干郊原古，窈窕丹青户牖空。落落盘踞虽得地，冥冥孤高多烈风。扶持自是神明力，正直原因造化功。大厦如倾要梁栋，万牛回首丘山重。不露文章世已惊，未辞翦伐谁能送？苦心岂免容蝼蚁，香叶终经宿鸾凤。志士幽人莫怨嗟：古来材大难为用。</t>
+          <t>风吹柳花满店香，吴姬压酒劝客尝。(劝客 一作：唤客)金陵子弟来相送，欲行不行各尽觞。请君试问东流水，别意与之谁短长？</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>沈熙乾 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>元结</t>
+          <t>陈子昂</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7410,12 +7410,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>漫叟以公田米酿酒，因休暇，则载酒于湖上，时取一醉。欢醉中，据湖岸，引臂向鱼取酒，使舫载之，遍饮坐者。意疑倚巴丘酌于君山之上，诸子环洞庭而坐，酒舫泛泛然触波涛。而往来者，乃作歌以长之。石鱼湖，似洞庭，夏水欲满君山青。山为樽，水为沼，酒徒历历坐洲岛。长风连日作大浪，不能废人运酒舫。我持长瓢坐巴丘，酌饮四坐以散愁。</t>
+          <t>前不见古人，后不见来者。念天地之悠悠，独怆然而涕下！</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>王运熙 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>李商隐</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7437,12 +7437,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>元和天子神武姿，彼何人哉轩与羲。誓将上雪列圣耻，坐法宫中朝四夷。淮西有贼五十载，封狼生貙貙生罴。不据山河据平地，长戈利矛日可麾。帝得圣相相曰度，贼斫不死神扶持。腰悬相印作都统，阴风惨澹天王旗。愬武古通作牙爪，仪曹外郎载笔随。 行军司马智且勇，十四万众犹虎貔。入蔡缚贼献太庙，功无与让恩不訾。帝曰汝度功第一，汝从事愈宜为辞。愈拜稽首蹈且舞，金石刻画臣能为。古者世称大手笔，此事不系于职司。当仁自古有不让，言讫屡颔天子颐。公退斋戒坐小阁，濡染大笔何淋漓。点窜《尧典》《舜典》字，涂改《清庙》《生民》诗。文成破体书在纸，清晨再拜铺丹墀。表曰臣愈昧死上，咏神圣功书之碑。碑高三丈字如斗，负以灵鳌蟠以螭。句奇语重喻者少，谗之天子言其私。长绳百尺拽碑倒，粗砂大石相磨治。公之斯文若元气，先时已入人肝脾。汤盘孔鼎有述作，今无其器存其辞。呜呼圣王及圣相，相与烜赫流淳熙。公之斯文不示后，曷与三五相攀追。愿书万本诵万遍，口角流沫右手胝。传之七十有二代，以为封禅玉检明堂基。</t>
+          <t>我本楚狂人，凤歌笑孔丘。手持绿玉杖，朝别黄鹤楼。五岳寻仙不辞远，一生好入名山游。庐山秀出南斗傍，屏风九叠云锦张，影落明湖青黛光。金阙前开二峰长，银河倒挂三石梁，香炉瀑布遥相望，回崖沓嶂凌苍苍。翠影红霞映朝日，鸟飞不到吴天长。登高壮观天地间，大江茫茫去不还。黄云万里动风色，白波九道流雪山。好为庐山谣，兴因庐山发。闲窥石镜清我心，谢公行处苍苔没。早服还丹无世情，琴心三叠道初成。遥见仙人彩云里，手把芙蓉朝玉京。先期汗漫九垓上，愿接卢敖游太清。</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>何国治 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>李颀</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>海客谈瀛洲，烟涛微茫信难求；越人语天姥，云霞明灭或可睹。天姥连天向天横，势拔五岳掩赤城。天台四万八千丈，对此欲倒东南倾。(四万 一作：一万)我欲因之梦吴越，一夜飞度镜湖月。湖月照我影，送我至剡溪。谢公宿处今尚在，渌水荡漾清猿啼。脚著谢公屐，身登青云梯。半壁见海日，空中闻天鸡。千岩万转路不定，迷花倚石忽已暝。熊咆龙吟殷岩泉，栗深林兮惊层巅。云青青兮欲雨，水澹澹兮生烟。列缺霹雳，丘峦崩摧。洞天石扉，訇然中开。青冥浩荡不见底，日月照耀金银台。 霓为衣兮风为马，云之君兮纷纷而来下。虎鼓瑟兮鸾回车，仙之人兮列如麻。忽魂悸以魄动，恍惊起而长嗟。惟觉时之枕席，失向来之烟霞。世间行乐亦如此，古来万事东流水。别君去兮何时还？且放白鹿青崖间，须行即骑访名山。安能摧眉折腰事权贵，使我不得开心颜！</t>
+          <t>男儿事长征，少小幽燕客。赌胜马蹄下，由来轻七尺。杀人莫敢前，须如猬毛磔。黄云陇底白云飞，未得报恩不得归。辽东小妇年十五，惯弹琵琶解歌舞。今为羌笛出塞声，使我三军泪如雨。</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>南山截竹为觱篥，此乐本自龟兹出。流传汉地曲转奇，凉州胡人为我吹。傍邻闻者多叹息，远客思乡皆泪垂。世人解听不解赏，长飙风中自来往。枯桑老柏寒飕飗，九雏鸣凤乱啾啾。龙吟虎啸一时发，万籁百泉相与秋。忽然更作渔阳掺，黄云萧条白日暗。变调如闻杨柳春，上林繁花照眼新。岁夜高堂列明烛，美酒一杯声一曲。</t>
+          <t>蔡女昔造胡笳声，一弹一十有八拍。胡人落泪沾边草，汉使断肠对归客。古戍苍苍烽火寒，大荒沉沉飞雪白。(沉沉 一作：阴沉)先拂商弦后角羽，四郊秋叶惊摵摵。董夫子，通神明，深山窃听来妖精。言迟更速皆应手，将往复旋如有情。空山百鸟散还合，万里浮云阴且晴。嘶酸雏雁失群夜，断绝胡儿恋母声。川为静其波，鸟亦罢其鸣。乌孙部落家乡远，逻娑沙尘哀怨生。幽音变调忽飘洒，长风吹林雨堕瓦。迸泉飒飒飞木末，野鹿呦呦走堂下。长安城连东掖垣，凤凰池对青琐门。高才脱略名与利，日夕望君抱琴至。</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>李颀</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>蔡女昔造胡笳声，一弹一十有八拍。胡人落泪沾边草，汉使断肠对归客。古戍苍苍烽火寒，大荒沉沉飞雪白。(沉沉 一作：阴沉)先拂商弦后角羽，四郊秋叶惊摵摵。董夫子，通神明，深山窃听来妖精。言迟更速皆应手，将往复旋如有情。空山百鸟散还合，万里浮云阴且晴。嘶酸雏雁失群夜，断绝胡儿恋母声。川为静其波，鸟亦罢其鸣。乌孙部落家乡远，逻娑沙尘哀怨生。幽音变调忽飘洒，长风吹林雨堕瓦。迸泉飒飒飞木末，野鹿呦呦走堂下。长安城连东掖垣，凤凰池对青琐门。高才脱略名与利，日夕望君抱琴至。</t>
+          <t>轮台城头夜吹角，轮台城北旄头落。羽书昨夜过渠黎，单于已在金山西。戍楼西望烟尘黑，汉军屯在轮台北。上将拥旄西出征，平明吹笛大军行。四边伐鼓雪海涌，三军大呼阴山动。虏塞兵气连云屯，战场白骨缠草根。剑河风急雪片阔，沙口石冻马蹄脱。(雪片阔 一作：云片阔)亚相勤王甘苦辛，誓将报主静边尘。古来青史谁不见，今见功名胜古人。</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>将军魏武之子孙，于今为庶为清门。英雄割据虽已矣，文采风流今尚存。学书初学卫夫人，但恨无过王右军。丹青不知老将至，富贵于我如浮云。开元之中常引见，承恩数上南薰殿。凌烟功臣少颜色，将军下笔开生面。良相头上进贤冠，猛将腰间大羽箭。褒公鄂公毛发动，英姿飒爽来酣战。先帝天马玉花骢，画工如山貌不同。是日牵来赤墀下，迥立阊阖生长风。诏谓将军拂绢素，意匠惨澹经营中。斯须九重真龙出，一洗万古凡马空。玉花却在御榻上，榻上庭前屹相向。至尊含笑催赐金，圉人太仆皆惆怅。弟子韩干早入室，亦能画马穷殊相。干惟画肉不画骨，忍使骅骝气凋丧。将军画善盖有神，必逢佳士亦写真。即今漂泊干戈际，屡貌寻常行路人。途穷反遭俗眼白，世上未有如公贫。但看古来盛名下，终日坎壈缠其身。</t>
+          <t>孔明庙前有老柏，柯如青铜根如石。霜皮溜雨四十围，黛色参天二千尺。君臣已与时际会，树木犹为人爱惜。云来气接巫峡长，月出寒通雪山白。忆昨路绕锦亭东，先主武侯同閟宫。崔嵬枝干郊原古，窈窕丹青户牖空。落落盘踞虽得地，冥冥孤高多烈风。扶持自是神明力，正直原因造化功。大厦如倾要梁栋，万牛回首丘山重。不露文章世已惊，未辞翦伐谁能送？苦心岂免容蝼蚁，香叶终经宿鸾凤。志士幽人莫怨嗟：古来材大难为用。</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>柳宗元</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7572,12 +7572,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>渔翁夜傍西岩宿，晓汲清湘燃楚竹。烟销日出不见人，欸乃一声山水绿。回看天际下中流，岩上无心云相逐。</t>
+          <t>君不见走马川行雪海边，平沙莽莽黄入天。 轮台九月风夜吼，一川碎石大如斗，随风满地石乱走。 匈奴草黄马正肥，金山西见烟尘飞，汉家大将西出师。 将军金甲夜不脱，半夜军行戈相拨，风头如刀面如割。 马毛带雪汗气蒸，五花连钱旋作冰，幕中草檄砚水凝。 虏骑闻之应胆慑，料知短兵不敢接，车师西门伫献捷。(车师 一作：军师)</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>韩愈</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7599,12 +7599,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>五岳祭秩皆三公，四方环镇嵩当中。火维地荒足妖怪，天假神柄专其雄。喷云泄雾藏半腹，虽有绝顶谁能穷？我来正逢秋雨节，阴气晦昧无清风。潜心默祷若有应，岂非正直能感通！须臾静扫众峰出，仰见突兀撑青空。紫盖连延接天柱，石廪腾掷堆祝融。森然魄动下马拜，松柏一径趋灵宫。粉墙丹柱动光彩，鬼物图画填青红。升阶伛偻荐脯酒，欲以菲薄明其衷。庙令老人识神意，睢盱侦伺能鞠躬。手持杯珓导我掷，云此最吉余难同。窜逐蛮荒幸不死，衣食才足甘长终。侯王将相望久绝，神纵欲福难为功。夜投佛寺上高阁，星月掩映云曈昽。猿鸣钟动不知曙，杲杲寒日生于东。</t>
+          <t>大历二年十月十九日，夔府别驾元持宅，见临颍李十二娘舞剑器，壮其蔚跂，问其所师，曰：“余公孙大娘弟子也。” 开元五载，余尚童稚，记于郾城观公孙氏，舞剑器浑脱，浏漓顿挫，独出冠时，自高头宜春梨园二伎坊内人洎外供奉舞女，晓是舞者，圣文神武皇帝初，公孙一人而已。玉貌锦衣，况余白首，今兹弟子，亦非盛颜。既辨其由来，知波澜莫二，抚事慷慨，聊为《剑器行》。昔者吴人张旭，善草书帖，数常于邺县见公孙大娘舞西河剑器，自此草书长进，豪荡感激，即公孙可知矣。昔有佳人公孙氏，一舞剑器动四方。观者如山色沮丧，天地为之久低昂。㸌如羿射九日落，矫如群帝骖龙翔。来如雷霆收震怒，罢如江海凝清光。绛唇珠袖两寂寞，晚有弟子传芬芳。临颍美人在白帝，妙舞此曲神扬扬。与余问答既有以，感时抚事增惋伤。先帝侍女八千人，公孙剑器初第一。五十年间似反掌，风尘澒洞昏王室。梨园弟子散如烟，女乐余姿映寒日。金粟堆前木已拱，瞿唐石城草萧瑟。玳筵急管曲复终，乐极哀来月东出。老夫不知其所往，足茧荒山转愁疾。</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>寿永明主编,中国文学名作欣赏,浙江大学出版社,2005年08月第1版,第28页</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>李颀</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>四月南风大麦黄，枣花未落桐阴长。(阴 一作：叶)青山朝别暮还见，嘶马出门思旧乡。陈侯立身何坦荡，虬须虎眉仍大颡。腹中贮书一万卷，不肯低头在草莽。东门酤酒饮我曹，心轻万事如鸿毛。醉卧不知白日暮，有时空望孤云高。长河浪头连天黑，津口停舟渡不得。郑国游人未及家，洛阳行子空叹息。闻道故林相识多，罢官昨日今如何。</t>
+          <t>今我不乐思岳阳，身欲奋飞病在床。美人娟娟隔秋水，濯足洞庭望八荒。鸿飞冥冥日月白，青枫叶赤天雨霜。玉京群帝集北斗，或骑麒麟翳凤凰。芙蓉旌旗烟雾落，影动倒景摇潇湘。星宫之君醉琼浆，羽人稀少不在旁。似闻昨者赤松子，恐是汉代韩张良。昔随刘氏定长安，帷幄未改神惨伤。国家成败吾岂敢，色难腥腐餐枫香。周南留滞古所惜，南极老人应寿昌。美人胡为隔秋水，焉得置之贡玉堂。</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
+          <t>张国伟 韩成武．唐诗三百首赏析</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>孟浩然</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7653,12 +7653,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>大历二年十月十九日，夔府别驾元持宅，见临颍李十二娘舞剑器，壮其蔚跂，问其所师，曰：“余公孙大娘弟子也。” 开元五载，余尚童稚，记于郾城观公孙氏，舞剑器浑脱，浏漓顿挫，独出冠时，自高头宜春梨园二伎坊内人洎外供奉舞女，晓是舞者，圣文神武皇帝初，公孙一人而已。玉貌锦衣，况余白首，今兹弟子，亦非盛颜。既辨其由来，知波澜莫二，抚事慷慨，聊为《剑器行》。昔者吴人张旭，善草书帖，数常于邺县见公孙大娘舞西河剑器，自此草书长进，豪荡感激，即公孙可知矣。昔有佳人公孙氏，一舞剑器动四方。观者如山色沮丧，天地为之久低昂。㸌如羿射九日落，矫如群帝骖龙翔。来如雷霆收震怒，罢如江海凝清光。绛唇珠袖两寂寞，晚有弟子传芬芳。临颍美人在白帝，妙舞此曲神扬扬。与余问答既有以，感时抚事增惋伤。先帝侍女八千人，公孙剑器初第一。五十年间似反掌，风尘澒洞昏王室。梨园弟子散如烟，女乐余姿映寒日。金粟堆前木已拱，瞿唐石城草萧瑟。玳筵急管曲复终，乐极哀来月东出。老夫不知其所往，足茧荒山转愁疾。</t>
+          <t>山寺钟鸣昼已昏，渔梁渡头争渡喧。人随沙岸向江村，余亦乘舟归鹿门。鹿门月照开烟树，忽到庞公栖隐处。岩扉松径长寂寥，惟有幽人自来去。</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>寿永明主编,中国文学名作欣赏,浙江大学出版社,2005年08月第1版,第28页</t>
+          <t>萧涤非．唐诗鉴赏辞典</t>
         </is>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>韩愈</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>国初已来画鞍马，神妙独数江都王。将军得名三十载，人间又见真乘黄。曾貌先帝照夜白，龙池十日飞霹雳。内府殷红玛瑙盘，婕妤传诏才人索。盘赐将军拜舞归，轻纨细绮相追飞。贵戚权门得笔迹，始觉屏障生光辉。昔日太宗拳毛騧，近时郭家狮子花。今之新图有二马，复令识者久叹嗟。此皆骑战一敌万，缟素漠漠开风沙。其余七匹亦殊绝，迥若寒空动烟雪。霜蹄蹴踏长楸间，马官厮养森成列。可怜九马争神骏，顾视清高气深稳。借问苦心爱者谁，后有韦讽前支遁。忆昔巡幸新丰宫，翠华拂天来向东。腾骧磊落三万匹，皆与此图筋骨同。自从献宝朝河宗，无复射蛟江水中。君不见金粟堆前松柏里，龙媒去尽鸟呼风。</t>
+          <t>五岳祭秩皆三公，四方环镇嵩当中。火维地荒足妖怪，天假神柄专其雄。喷云泄雾藏半腹，虽有绝顶谁能穷？我来正逢秋雨节，阴气晦昧无清风。潜心默祷若有应，岂非正直能感通！须臾静扫众峰出，仰见突兀撑青空。紫盖连延接天柱，石廪腾掷堆祝融。森然魄动下马拜，松柏一径趋灵宫。粉墙丹柱动光彩，鬼物图画填青红。升阶伛偻荐脯酒，欲以菲薄明其衷。庙令老人识神意，睢盱侦伺能鞠躬。手持杯珓导我掷，云此最吉余难同。窜逐蛮荒幸不死，衣食才足甘长终。侯王将相望久绝，神纵欲福难为功。夜投佛寺上高阁，星月掩映云曈昽。猿鸣钟动不知曙，杲杲寒日生于东。</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7707,12 +7707,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>风吹柳花满店香，吴姬压酒劝客尝。(劝客 一作：唤客)金陵子弟来相送，欲行不行各尽觞。请君试问东流水，别意与之谁短长？</t>
+          <t>国初已来画鞍马，神妙独数江都王。将军得名三十载，人间又见真乘黄。曾貌先帝照夜白，龙池十日飞霹雳。内府殷红玛瑙盘，婕妤传诏才人索。盘赐将军拜舞归，轻纨细绮相追飞。贵戚权门得笔迹，始觉屏障生光辉。昔日太宗拳毛騧，近时郭家狮子花。今之新图有二马，复令识者久叹嗟。此皆骑战一敌万，缟素漠漠开风沙。其余七匹亦殊绝，迥若寒空动烟雪。霜蹄蹴踏长楸间，马官厮养森成列。可怜九马争神骏，顾视清高气深稳。借问苦心爱者谁，后有韦讽前支遁。忆昔巡幸新丰宫，翠华拂天来向东。腾骧磊落三万匹，皆与此图筋骨同。自从献宝朝河宗，无复射蛟江水中。君不见金粟堆前松柏里，龙媒去尽鸟呼风。</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>沈熙乾 等．唐诗鉴赏辞典．上海</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>陈子昂</t>
+          <t>柳宗元</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7734,12 +7734,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>前不见古人，后不见来者。念天地之悠悠，独怆然而涕下！</t>
+          <t>渔翁夜傍西岩宿，晓汲清湘燃楚竹。烟销日出不见人，欸乃一声山水绿。回看天际下中流，岩上无心云相逐。</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>王运熙 等．唐诗鉴赏辞典．上海</t>
+          <t>蘅塘退士 等 ．唐诗三百首·宋词三百首·元曲三百首 ．北京</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>岑参</t>
+          <t>韩愈</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>轮台城头夜吹角，轮台城北旄头落。羽书昨夜过渠黎，单于已在金山西。戍楼西望烟尘黑，汉军屯在轮台北。上将拥旄西出征，平明吹笛大军行。四边伐鼓雪海涌，三军大呼阴山动。虏塞兵气连云屯，战场白骨缠草根。剑河风急雪片阔，沙口石冻马蹄脱。(雪片阔 一作：云片阔)亚相勤王甘苦辛，誓将报主静边尘。古来青史谁不见，今见功名胜古人。</t>
+          <t>纤云四卷天无河，清风吹空月舒波。沙平水息声影绝，一杯相属君当歌。君歌声酸辞且苦，不能听终泪如雨。洞庭连天九疑高，蛟龙出没猩鼯号。十生九死到官所，幽居默默如藏逃。下床畏蛇食畏药，海气湿蛰熏腥臊。昨者州前捶大鼓，嗣皇继圣登夔皋。赦书一日行万里，罪从大辟皆除死。迁者追回流者还，涤瑕荡垢清朝班。州家申名使家抑，坎轲只得移荆蛮。判司卑官不堪说，未免捶楚尘埃间。同时辈流多上道，天路幽险难追攀。君歌且休听我歌，我歌今与君殊科。一年明月今宵多，人生由命非由他。有酒不饮奈明何。</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
         </is>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>韩愈</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7788,12 +7788,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>张生手持石鼓文，劝我试作石鼓歌。少陵无人谪仙死，才薄将奈石鼓何。周纲凌迟四海沸，宣王愤起挥天戈。大开明堂受朝贺，诸侯剑佩鸣相磨。蒐于岐阳骋雄俊，万里禽兽皆遮罗。镌功勒成告万世，凿石作鼓隳嵯峨。从臣才艺咸第一，拣选撰刻留山阿。雨淋日炙野火燎，鬼物守护烦撝呵。公从何处得纸本，毫发尽备无差讹。辞严义密读难晓，字体不类隶与蝌。年深岂免有缺画，快剑斫断生蛟鼍。鸾翔凤翥众仙下，珊瑚碧树交枝柯。金绳铁索锁钮壮，古鼎跃水龙腾梭。陋儒编诗不收入，二雅褊迫无委蛇。孔子西行不到秦，掎摭星宿遗羲娥。嗟余好古生苦晚，对此涕泪双滂沱。忆昔初蒙博士征，其年始改称元和。故人从军在右辅，为我度量掘臼科。濯冠沐浴告祭酒，如此至宝存岂多。毡包席裹可立致，十鼓只载数骆驼。荐诸太庙比郜鼎，光价岂止百倍过。圣恩若许留太学，诸生讲解得切磋。观经鸿都尚填咽，坐见举国来奔波。剜苔剔藓露节角，安置妥帖平不颇。大厦深檐与盖覆，经历久远期无佗。中朝大官老于事，讵肯感激徒媕婀。牧童敲火牛砺角，谁复著手为摩挲。日销月铄就埋没，六年西顾空吟哦。羲之俗书趁姿媚，数纸尚可博白鹅。继周八代争战罢，无人收拾理则那。方今太平日无事，柄任儒术崇丘轲。安能以此尚论列，愿借辩口如悬河。石鼓之歌止于此，呜呼吾意其蹉跎。</t>
+          <t>将军魏武之子孙，于今为庶为清门。英雄割据虽已矣，文采风流今尚存。学书初学卫夫人，但恨无过王右军。丹青不知老将至，富贵于我如浮云。开元之中常引见，承恩数上南薰殿。凌烟功臣少颜色，将军下笔开生面。良相头上进贤冠，猛将腰间大羽箭。褒公鄂公毛发动，英姿飒爽来酣战。先帝天马玉花骢，画工如山貌不同。是日牵来赤墀下，迥立阊阖生长风。诏谓将军拂绢素，意匠惨澹经营中。斯须九重真龙出，一洗万古凡马空。玉花却在御榻上，榻上庭前屹相向。至尊含笑催赐金，圉人太仆皆惆怅。弟子韩干早入室，亦能画马穷殊相。干惟画肉不画骨，忍使骅骝气凋丧。将军画善盖有神，必逢佳士亦写真。即今漂泊干戈际，屡貌寻常行路人。途穷反遭俗眼白，世上未有如公贫。但看古来盛名下，终日坎壈缠其身。</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>岑参</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>今我不乐思岳阳，身欲奋飞病在床。美人娟娟隔秋水，濯足洞庭望八荒。鸿飞冥冥日月白，青枫叶赤天雨霜。玉京群帝集北斗，或骑麒麟翳凤凰。芙蓉旌旗烟雾落，影动倒景摇潇湘。星宫之君醉琼浆，羽人稀少不在旁。似闻昨者赤松子，恐是汉代韩张良。昔随刘氏定长安，帷幄未改神惨伤。国家成败吾岂敢，色难腥腐餐枫香。周南留滞古所惜，南极老人应寿昌。美人胡为隔秋水，焉得置之贡玉堂。</t>
+          <t>北风卷地白草折，胡天八月即飞雪。忽如一夜春风来，千树万树梨花开。散入珠帘湿罗幕，狐裘不暖锦衾薄。将军角弓不得控，都护铁衣冷难着。(难着 一作：犹著)瀚海阑干百丈冰，愁云惨淡万里凝。中军置酒饮归客，胡琴琵琶与羌笛。纷纷暮雪下辕门，风掣红旗冻不翻。轮台东门送君去，去时雪满天山路。山回路转不见君，雪上空留马行处。</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>张国伟 韩成武．唐诗三百首赏析</t>
+          <t>周啸天 等．唐诗鉴赏辞典．上海</t>
         </is>
       </c>
     </row>
@@ -7842,12 +7842,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>主人有酒欢今夕，请奏鸣琴广陵客。月照城头乌半飞，霜凄万树风入衣。(万树 一作：万木)铜炉华烛烛增辉，初弹渌水后楚妃。一声已动物皆静，四座无言星欲稀。清淮奉使千余里，敢告云山从此始。</t>
+          <t>四月南风大麦黄，枣花未落桐阴长。(阴 一作：叶)青山朝别暮还见，嘶马出门思旧乡。陈侯立身何坦荡，虬须虎眉仍大颡。腹中贮书一万卷，不肯低头在草莽。东门酤酒饮我曹，心轻万事如鸿毛。醉卧不知白日暮，有时空望孤云高。长河浪头连天黑，津口停舟渡不得。郑国游人未及家，洛阳行子空叹息。闻道故林相识多，罢官昨日今如何。</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>赵昌平 ．唐诗三百首全解</t>
+          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
         </is>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>白居易</t>
+          <t>韩愈</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>汉皇重色思倾国，御宇多年求不得。杨家有女初长成，养在深闺人未识。天生丽质难自弃，一朝选在君王侧。回眸一笑百媚生，六宫粉黛无颜色。春寒赐浴华清池，温泉水滑洗凝脂。侍儿扶起娇无力，始是新承恩泽时。云鬓花颜金步摇，芙蓉帐暖度春宵。春宵苦短日高起，从此君王不早朝。承欢侍宴无闲暇，春从春游夜专夜。后宫佳丽三千人，三千宠爱在一身。金屋妆成娇侍夜，玉楼宴罢醉和春。姊妹弟兄皆列土，可怜光彩生门户。遂令天下父母心，不重生男重生女。骊宫高处入青云，仙乐风飘处处闻。缓歌慢舞凝丝竹，尽日君王看不足。渔阳鼙鼓动地来，惊破霓裳羽衣曲。九重城阙烟尘生，千乘万骑西南行。翠华摇摇行复止，西出都门百余里。六军不发无奈何，宛转蛾眉马前死。花钿委地无人收，翠翘金雀玉搔头。君王掩面救不得，回看血泪相和流。黄埃散漫风萧索，云栈萦纡登剑阁。峨嵋山下少人行，旌旗无光日色薄。蜀江水碧蜀山青，圣主朝朝暮暮情。行宫见月伤心色，夜雨闻铃肠断声。天旋地转回龙驭，到此踌躇不能去。(地转 一作：日转)马嵬坡下泥土中，不见玉颜空死处。君臣相顾尽沾衣，东望都门信马归。归来池苑皆依旧，太液芙蓉未央柳。芙蓉如面柳如眉，对此如何不泪垂？春风桃李花开日，秋雨梧桐叶落时。(花开日 一作：花开夜)西宫南内多秋草，落叶满阶红不扫。(南内 一作：南苑)梨园弟子白发新，椒房阿监青娥老。夕殿萤飞思悄然，孤灯挑尽未成眠。迟迟钟鼓初长夜，耿耿星河欲曙天。鸳鸯瓦冷霜华重，翡翠衾寒谁与共？悠悠生死别经年，魂魄不曾来入梦。临邛道士鸿都客，能以精诚致魂魄。为感君王辗转思，遂教方士殷勤觅。排空驭气奔如电，升天入地求之遍。上穷碧落下黄泉，两处茫茫皆不见。忽闻海上有仙山，山在虚无缥缈间。楼阁玲珑五云起，其中绰约多仙子。中有一人字太真，雪肤花貌参差是。金阙西厢叩玉扃，转教小玉报双成。闻道汉家天子使，九华帐里梦魂惊。揽衣推枕起徘徊，珠箔银屏迤逦开。云鬓半偏新睡觉，花冠不整下堂来。(云鬓 一作：云髻)风吹仙袂飘飖举，犹似霓裳羽衣舞。(飘飖 一作：飘飘)玉容寂寞泪阑干，梨花一枝春带雨。(阑 通：栏)含情凝睇谢君王，一别音容两渺茫。昭阳殿里恩爱绝，蓬莱宫中日月长。回头下望人寰处，不见长安见尘雾。惟将旧物表深情，钿合金钗寄将去。钗留一股合一扇，钗擘黄金合分钿。但令心似金钿坚，天上人间会相见。(但令 一作：但教)临别殷勤重寄词，词中有誓两心知。七月七日长生殿，夜半无人私语时。在天愿作比翼鸟，在地愿为连理枝。天长地久有时尽，此恨绵绵无绝期。</t>
+          <t>山石荦确行径微，黄昏到寺蝙蝠飞。升堂坐阶新雨足，芭蕉叶大栀子肥。僧言古壁佛画好，以火来照所见稀。铺床拂席置羹饭，疏粝亦足饱我饥。夜深静卧百虫绝，清月出岭光入扉。天明独去无道路，出入高下穷烟霏。山红涧碧纷烂漫，时见松枥皆十围。当流赤足踏涧石，水声激激风吹衣。人生如此自可乐，岂必局束为人鞿？嗟哉吾党二三子，安得至老不更归。</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>周啸天．唐诗鉴赏辞典</t>
+          <t>萧涤非 等·唐诗鉴赏辞典·上海</t>
         </is>
       </c>
     </row>
@@ -7896,12 +7896,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>纤云四卷天无河，清风吹空月舒波。沙平水息声影绝，一杯相属君当歌。君歌声酸辞且苦，不能听终泪如雨。洞庭连天九疑高，蛟龙出没猩鼯号。十生九死到官所，幽居默默如藏逃。下床畏蛇食畏药，海气湿蛰熏腥臊。昨者州前捶大鼓，嗣皇继圣登夔皋。赦书一日行万里，罪从大辟皆除死。迁者追回流者还，涤瑕荡垢清朝班。州家申名使家抑，坎轲只得移荆蛮。判司卑官不堪说，未免捶楚尘埃间。同时辈流多上道，天路幽险难追攀。君歌且休听我歌，我歌今与君殊科。一年明月今宵多，人生由命非由他。有酒不饮奈明何。</t>
+          <t>张生手持石鼓文，劝我试作石鼓歌。少陵无人谪仙死，才薄将奈石鼓何。周纲凌迟四海沸，宣王愤起挥天戈。大开明堂受朝贺，诸侯剑佩鸣相磨。蒐于岐阳骋雄俊，万里禽兽皆遮罗。镌功勒成告万世，凿石作鼓隳嵯峨。从臣才艺咸第一，拣选撰刻留山阿。雨淋日炙野火燎，鬼物守护烦撝呵。公从何处得纸本，毫发尽备无差讹。辞严义密读难晓，字体不类隶与蝌。年深岂免有缺画，快剑斫断生蛟鼍。鸾翔凤翥众仙下，珊瑚碧树交枝柯。金绳铁索锁钮壮，古鼎跃水龙腾梭。陋儒编诗不收入，二雅褊迫无委蛇。孔子西行不到秦，掎摭星宿遗羲娥。嗟余好古生苦晚，对此涕泪双滂沱。忆昔初蒙博士征，其年始改称元和。故人从军在右辅，为我度量掘臼科。濯冠沐浴告祭酒，如此至宝存岂多。毡包席裹可立致，十鼓只载数骆驼。荐诸太庙比郜鼎，光价岂止百倍过。圣恩若许留太学，诸生讲解得切磋。观经鸿都尚填咽，坐见举国来奔波。剜苔剔藓露节角，安置妥帖平不颇。大厦深檐与盖覆，经历久远期无佗。中朝大官老于事，讵肯感激徒媕婀。牧童敲火牛砺角，谁复著手为摩挲。日销月铄就埋没，六年西顾空吟哦。羲之俗书趁姿媚，数纸尚可博白鹅。继周八代争战罢，无人收拾理则那。方今太平日无事，柄任儒术崇丘轲。安能以此尚论列，愿借辩口如悬河。石鼓之歌止于此，呜呼吾意其蹉跎。</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>萧涤非 等 ．唐诗鉴赏辞典 ．上海</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>王昌龄</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7923,12 +7923,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>蝉鸣空桑林，八月萧关道。出塞入塞寒，处处黄芦草。从来幽并客，皆共尘沙老。莫学游侠儿，矜夸紫骝好。</t>
+          <t>桂魄初生秋露微，轻罗已薄未更衣。银筝夜久殷勤弄，心怯空房不忍归。</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>韩成武 ．唐诗三百首赏析</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7950,12 +7950,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无故人。</t>
+          <t>噫吁嚱，危乎高哉！蜀道之难，难于上青天！蚕丛及鱼凫，开国何茫然！尔来四万八千岁，不与秦塞通人烟。西当太白有鸟道，可以横绝峨眉巅。地崩山摧壮士死，然后天梯石栈相钩连。上有六龙回日之高标，下有冲波逆折之回川。黄鹤之飞尚不得过，猿猱欲度愁攀援。青泥何盘盘，百步九折萦岩峦。扪参历井仰胁息，以手抚膺坐长叹。问君西游何时还？畏途巉岩不可攀。但见悲鸟号古木，雄飞雌从绕林间。又闻子规啼夜月，愁空山。蜀道之难，难于上青天，使人听此凋朱颜！连峰去天不盈尺，枯松倒挂倚绝壁。飞湍瀑流争喧豗，砯崖转石万壑雷。其险也如此，嗟尔远道之人胡为乎来哉！(也如此 一作：也若此)剑阁峥嵘而崔嵬，一夫当关，万夫莫开。所守或匪亲，化为狼与豺。朝避猛虎，夕避长蛇，磨牙吮血，杀人如麻。锦城虽云乐，不如早还家。蜀道之难，难于上青天，侧身西望长咨嗟！</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>张国举．唐诗精华注译评．长春</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7977,12 +7977,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>金樽清酒斗十千，玉盘珍羞直万钱。(羞 同：馐；直 同：值)停杯投箸不能食，拔剑四顾心茫然。欲渡黄河冰塞川，将登太行雪满山。(雪满山 一作：雪暗天)闲来垂钓碧溪上，忽复乘舟梦日边。(碧 一作：坐)行路难，行路难，多歧路，今安在？长风破浪会有时，直挂云帆济沧海。</t>
+          <t>一枝秾艳露凝香，云雨巫山枉断肠。(秾艳 一作：红艳)借问汉宫谁得似，可怜飞燕倚新妆。</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>裴 斐．李白诗歌赏析集．成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>王之涣</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>渔舟逐水爱山春，两岸桃花夹古津。坐看红树不知远，行尽青溪不见人。(不见 一作：忽值)山口潜行始隈隩，山开旷望旋平陆。遥看一处攒云树，近入千家散花竹。樵客初传汉姓名，居人未改秦衣服。居人共住武陵源，还从物外起田园。月明松下房栊静，日出云中鸡犬喧。惊闻俗客争来集，竞引还家问都邑。平明闾巷扫花开，薄暮渔樵乘水入。初因避地去人间，及至成仙遂不还。峡里谁知有人事，世中遥望空云山。不疑灵境难闻见，尘心未尽思乡县。出洞无论隔山水，辞家终拟长游衍。自谓经过旧不迷，安知峰壑今来变。当时只记入山深，青溪几度到云林。春来遍是桃花水，不辨仙源何处寻。</t>
+          <t>黄河远上白云间，一片孤城万仞山。羌笛何须怨杨柳，春风不度玉门关。</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>李益</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8031,12 +8031,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>嫁得瞿塘贾，朝朝误妾期。早知潮有信，嫁与弄潮儿。</t>
+          <t>野幕敞琼筵，羌戎贺劳旋。醉和金甲舞，雷鼓动山川。</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>刘士杰.语涉荒唐 怨情尤切——李益《江南曲》赏析.学语文,2003(11)</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>崔颢</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>家临九江水，来去九江侧。同是长干人，生小不相识。</t>
+          <t>长安城头头白乌，夜飞延秋门上呼。又向人家啄大屋，屋底达官走避胡。金鞭断折九马死，骨肉不得同驰驱。腰下宝玦青珊瑚，可怜王孙泣路隅。问之不肯道姓名，但道困苦乞为奴。已经百日窜荆棘，身上无有完肌肤。高帝子孙尽隆准，龙种自与常人殊。豺狼在邑龙在野，王孙善保千金躯。不敢长语临交衢，且为王孙立斯须。昨夜东风吹血腥，东来橐驼满旧都。朔方健儿好身手，昔何勇锐今何愚。窃闻天子已传位，圣德北服南单于。花门剺面请雪耻，慎勿出口他人狙。哀哉王孙慎勿疏，五陵佳气无时无。</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>王昌龄</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>饮马渡秋水，水寒风似刀。平沙日未没，黯黯见临洮。昔日长城战，咸言意气高。黄尘足今古，白骨乱蓬蒿。</t>
+          <t>少年十五二十时，步行夺得胡马骑。(夺得 一作：夺取)射杀山中白额虎，肯数邺下黄须儿！一身转战三千里，一剑曾当百万师。汉兵奋迅如霹雳，虏骑崩腾畏蒺藜。卫青不败由天幸，李广无功缘数奇。自从弃置便衰朽，世事蹉跎成白首。昔时飞箭无全目，今日垂杨生左肘。路旁时卖故侯瓜，门前学种先生柳。苍茫古木连穷巷，寥落寒山对虚牖。(苍茫 一作：茫茫)誓令疏勒出飞泉，不似颍川空使酒。贺兰山下阵如云，羽檄交驰日夕闻。节使三河募年少，诏书五道出将军。试拂铁衣如雪色，聊持宝剑动星文。愿得燕弓射大将，耻令越甲鸣吾君。(大将 一作：天将)莫嫌旧日云中守，犹堪一战取功勋。</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8112,12 +8112,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>日色欲尽花含烟，月明如素愁不眠。(如素 一作：欲素)赵瑟初停凤凰柱，蜀琴欲奏鸳鸯弦。此曲有意无人传，愿随春风寄燕然。忆君迢迢隔青天。昔时横波目，今作流泪泉。不信妾肠断，归来看取明镜前。(肠断 一作：断肠)</t>
+          <t>渔舟逐水爱山春，两岸桃花夹古津。坐看红树不知远，行尽青溪不见人。(不见 一作：忽值)山口潜行始隈隩，山开旷望旋平陆。遥看一处攒云树，近入千家散花竹。樵客初传汉姓名，居人未改秦衣服。居人共住武陵源，还从物外起田园。月明松下房栊静，日出云中鸡犬喧。惊闻俗客争来集，竞引还家问都邑。平明闾巷扫花开，薄暮渔樵乘水入。初因避地去人间，及至成仙遂不还。峡里谁知有人事，世中遥望空云山。不疑灵境难闻见，尘心未尽思乡县。出洞无论隔山水，辞家终拟长游衍。自谓经过旧不迷，安知峰壑今来变。当时只记入山深，青溪几度到云林。春来遍是桃花水，不辨仙源何处寻。</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>裴斐·李白诗歌赏析集·成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -8139,12 +8139,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>君不见黄河之水天上来，奔流到海不复回。君不见高堂明镜悲白发，朝如青丝暮成雪。人生得意须尽欢，莫使金樽空对月。天生我材必有用，千金散尽还复来。烹羊宰牛且为乐，会须一饮三百杯。岑夫子，丹丘生，将进酒，杯莫停。与君歌一曲，请君为我倾耳听。(倾耳听 一作：侧耳听)钟鼓馔玉不足贵，但愿长醉不愿醒。(不足贵 一作：何足贵；不愿醒 一作：不复醒)古来圣贤皆寂寞，惟有饮者留其名。(古来 一作：自古；惟 通：唯)陈王昔时宴平乐，斗酒十千恣欢谑。主人何为言少钱，径须沽取对君酌。五花马、千金裘，呼儿将出换美酒，与尔同销万古愁。</t>
+          <t>少陵野老吞声哭，春日潜行曲江曲。江头宫殿锁千门，细柳新蒲为谁绿？忆昔霓旌下南苑，苑中万物生颜色。昭阳殿里第一人，同辇随君侍君侧。辇前才人带弓箭，白马嚼啮黄金勒。翻身向天仰射云，一笑正坠双飞翼。(一笑 一作：一箭)明眸皓齿今何在？血污游魂归不得。清渭东流剑阁深，去住彼此无消息。人生有情泪沾臆，江水江花岂终极！黄昏胡骑尘满城，欲往城南望城北。</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>郁贤皓 编选．李白集．南京</t>
+          <t>于海娣 等·北京·唐诗鉴赏大全集[M]</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>秦地罗敷女，采桑绿水边。素手青条上，红妆白日鲜。蚕饥妾欲去，五马莫留连。</t>
+          <t>渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无故人。</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>裴斐·李白诗歌赏析集·成都</t>
+          <t>张国举．唐诗精华注译评．长春</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>李颀</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8193,12 +8193,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>白日登山望烽火，黄昏饮马傍交河。行人刁斗风沙暗，公主琵琶幽怨多。野云万里无城郭，雨雪纷纷连大漠。胡雁哀鸣夜夜飞，胡儿眼泪双双落。闻道玉门犹被遮，应将性命逐轻车。年年战骨埋荒外，空见蒲桃入汉家。</t>
+          <t>君不见黄河之水天上来，奔流到海不复回。君不见高堂明镜悲白发，朝如青丝暮成雪。人生得意须尽欢，莫使金樽空对月。天生我材必有用，千金散尽还复来。烹羊宰牛且为乐，会须一饮三百杯。岑夫子，丹丘生，将进酒，杯莫停。与君歌一曲，请君为我倾耳听。(倾耳听 一作：侧耳听)钟鼓馔玉不足贵，但愿长醉不愿醒。(不足贵 一作：何足贵；不愿醒 一作：不复醒)古来圣贤皆寂寞，惟有饮者留其名。(古来 一作：自古；惟 通：唯)陈王昔时宴平乐，斗酒十千恣欢谑。主人何为言少钱，径须沽取对君酌。五花马、千金裘，呼儿将出换美酒，与尔同销万古愁。</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>朱凤相.一首借古写今缘情写景的边塞诗.西藏民族学院学报(哲学社会科学版),2006, 04</t>
+          <t>郁贤皓 编选．李白集．南京</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>高适</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>镜湖三百里，菡萏发荷花。五月西施采，人看隘若耶。回舟不待月，归去越王家。</t>
+          <t>开元二十六年，客有从元戎出塞而还者，作《燕歌行》以示，适感征戍之事，因而和焉。汉家烟尘在东北，汉将辞家破残贼。男儿本自重横行，天子非常赐颜色。摐金伐鼓下榆关，旌旆逶迤碣石间。校尉羽书飞瀚海，单于猎火照狼山。山川萧条极边土，胡骑凭陵杂风雨。战士军前半死生，美人帐下犹歌舞。大漠穷秋塞草腓，孤城落日斗兵稀。身当恩遇常轻敌，力尽关山未解围。(常轻敌 一作：恒轻敌)铁衣远戍辛勤久，玉箸应啼别离后。少妇城南欲断肠，征人蓟北空回首。边庭飘飖那可度，绝域苍茫无所有。(飘飖 一作：飘摇；无所 一作：更何)杀气三时作阵云，寒声一夜传刁斗。相看白刃血纷纷，死节从来岂顾勋！(血 一作：雪)君不见沙场征战苦，至今犹忆李将军。</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>裴斐·李白诗歌赏析集·成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>王之涣</t>
+          <t>杜秋娘</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8247,12 +8247,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>黄河远上白云间，一片孤城万仞山。羌笛何须怨杨柳，春风不度玉门关。</t>
+          <t>劝君莫惜金缕衣，劝君惜取少年时。(惜取 一作：须取)花开堪折直须折，莫待无花空折枝。(花开 一作：有花)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>姜葆夫，韦良成选注 ． 常用古诗 姜葆夫，韦良成选注</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8274,12 +8274,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>野幕敞琼筵，羌戎贺劳旋。醉和金甲舞，雷鼓动山川。</t>
+          <t>名花倾国两相欢，长得君王带笑看。(长得 一作：常得)解释春风无限恨，沉香亭北倚阑干。</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>大道如青天，我独不得出。羞逐长安社中儿，赤鸡白雉赌梨栗。弹剑作歌奏苦声，曳裾王门不称情。淮阴市井笑韩信，汉朝公卿忌贾生。君不见昔时燕家重郭隗，拥篲折节无嫌猜。剧辛乐毅感恩分，输肝剖胆效英才。昭王白骨萦蔓草，谁人更扫黄金台？行路难，归去来！</t>
+          <t>三月三日天气新，长安水边多丽人。态浓意远淑且真，肌理细腻骨肉匀。绣罗衣裳照暮春，蹙金孔雀银麒麟。头上何所有？翠微匎叶垂鬓唇。背后何所见？珠压腰衱稳称身。就中云幕椒房亲，赐名大国虢与秦。紫驼之峰出翠釜，水精之盘行素鳞。犀箸厌饫久未下，鸾刀缕切空纷纶。黄门飞鞚不动尘，御厨络绎送八珍。箫鼓哀吟感鬼神，宾从杂遝实要津。后来鞍马何逡巡，当轩下马入锦茵。杨花雪落覆白蘋，青鸟飞去衔红巾。炙手可热势绝伦，慎莫近前丞相嗔！</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>裴斐·李白诗歌赏析集[M]·成都</t>
+          <t>萧涤非．杜甫诗选注．北京</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>孟郊</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>梧桐相待老，鸳鸯会双死。贞女贵殉夫，舍生亦如此。波澜誓不起，妾心古井水。(古井水 一作：井中水)</t>
+          <t>饮马渡秋水，水寒风似刀。平沙日未没，黯黯见临洮。昔日长城战，咸言意气高。黄尘足今古，白骨乱蓬蒿。</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>少年十五二十时，步行夺得胡马骑。(夺得 一作：夺取)射杀山中白额虎，肯数邺下黄须儿！一身转战三千里，一剑曾当百万师。汉兵奋迅如霹雳，虏骑崩腾畏蒺藜。卫青不败由天幸，李广无功缘数奇。自从弃置便衰朽，世事蹉跎成白首。昔时飞箭无全目，今日垂杨生左肘。路旁时卖故侯瓜，门前学种先生柳。苍茫古木连穷巷，寥落寒山对虚牖。(苍茫 一作：茫茫)誓令疏勒出飞泉，不似颍川空使酒。贺兰山下阵如云，羽檄交驰日夕闻。节使三河募年少，诏书五道出将军。试拂铁衣如雪色，聊持宝剑动星文。愿得燕弓射大将，耻令越甲鸣吾君。(大将 一作：天将)莫嫌旧日云中守，犹堪一战取功勋。</t>
+          <t>云想衣裳花想容，春风拂槛露华浓。 若非群玉山头见，会向瑶台月下逢。</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
+          <t>光明日报出版社.《唐诗三百首》</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8382,12 +8382,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>月黑雁飞高，单于夜遁逃。欲将轻骑逐，大雪满弓刀。</t>
+          <t>镜湖三百里，菡萏发荷花。五月西施采，人看隘若耶。回舟不待月，归去越王家。</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>书香童年．小学生必背古诗词75首</t>
+          <t>裴斐·李白诗歌赏析集·成都</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>王昌龄</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8409,12 +8409,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>秦时明月汉时关，万里长征人未还。但使龙城飞将在，不教胡马度阴山。</t>
+          <t>玉阶生白露，夜久侵罗袜。却下水晶帘，玲珑望秋月。(水晶 一作：水精)</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>彭定求 等·全唐诗（上）[M]·上海</t>
+          <t>詹福瑞 等．李白诗全译．石家庄</t>
         </is>
       </c>
     </row>
@@ -8436,12 +8436,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>噫吁嚱，危乎高哉！蜀道之难，难于上青天！蚕丛及鱼凫，开国何茫然！尔来四万八千岁，不与秦塞通人烟。西当太白有鸟道，可以横绝峨眉巅。地崩山摧壮士死，然后天梯石栈相钩连。上有六龙回日之高标，下有冲波逆折之回川。黄鹤之飞尚不得过，猿猱欲度愁攀援。青泥何盘盘，百步九折萦岩峦。扪参历井仰胁息，以手抚膺坐长叹。问君西游何时还？畏途巉岩不可攀。但见悲鸟号古木，雄飞雌从绕林间。又闻子规啼夜月，愁空山。蜀道之难，难于上青天，使人听此凋朱颜！连峰去天不盈尺，枯松倒挂倚绝壁。飞湍瀑流争喧豗，砯崖转石万壑雷。</t>
+          <t>有耳莫洗颍川水，有口莫食首阳蕨。含光混世贵无名，何用孤高比云月？吾观自古贤达人，功成不退皆殒身。子胥既弃吴江上，屈原终投湘水滨。陆机雄才岂自保？李斯税驾苦不早。华亭鹤唳讵可闻？上蔡苍鹰何足道？君不见吴中张翰称达生，秋风忽忆江东行。且乐生前一杯酒，何须身后千载名？</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>裴斐·李白诗歌赏析集[M]·成都</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>长安一片月，万户捣衣声。秋风吹不尽，总是玉关情。何日平胡虏，良人罢远征。</t>
+          <t>蝉鸣空桑林，八月萧关道。出塞入塞寒，处处黄芦草。从来幽并客，皆共尘沙老。莫学游侠儿，矜夸紫骝好。</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>裴 斐．李白诗歌赏析集．成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8490,12 +8490,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>洛阳女儿对门居，才可颜容十五余。良人玉勒乘骢马，侍女金盘脍鲤鱼。画阁朱楼尽相望，红桃绿柳垂檐向。罗帷送上七香车，宝扇迎归九华帐。狂夫富贵在青春，意气骄奢剧季伦。自怜碧玉亲教舞，不惜珊瑚持与人。春窗曙灭九微火，九微片片飞花琐。戏罢曾无理曲时，妆成祗是熏香坐。城中相识尽繁华，日夜经过赵李家。谁怜越女颜如玉，贫贱江头自浣纱。</t>
+          <t>秦时明月汉时关，万里长征人未还。但使龙城飞将在，不教胡马度阴山。</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>彭定求 等·全唐诗（上）[M]·上海</t>
         </is>
       </c>
     </row>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>王维</t>
+          <t>王昌龄</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8517,12 +8517,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>桂魄初生秋露微，轻罗已薄未更衣。银筝夜久殷勤弄，心怯空房不忍归。</t>
+          <t>金井梧桐秋叶黄，珠帘不卷夜来霜。熏笼玉枕无颜色，卧听南宫清漏长。高殿秋砧响夜阑，霜深犹忆御衣寒。银灯青琐裁缝歇，还向金城明主看。奉帚平明金殿开，暂将团扇共徘徊。玉颜不及寒鸦色，犹带昭阳日影来。真成薄命久寻思，梦见君王觉后疑。火照西宫知夜饮，分明复道奉恩时。长信宫中秋月明，昭阳殿下捣衣声。白露堂中细草迹，红罗帐里不胜情。</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>韩成武 ．唐诗三百首赏析</t>
+          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>长安城头头白乌，夜飞延秋门上呼。又向人家啄大屋，屋底达官走避胡。金鞭断折九马死，骨肉不得同驰驱。腰下宝玦青珊瑚，可怜王孙泣路隅。问之不肯道姓名，但道困苦乞为奴。已经百日窜荆棘，身上无有完肌肤。高帝子孙尽隆准，龙种自与常人殊。豺狼在邑龙在野，王孙善保千金躯。不敢长语临交衢，且为王孙立斯须。昨夜东风吹血腥，东来橐驼满旧都。朔方健儿好身手，昔何勇锐今何愚。窃闻天子已传位，圣德北服南单于。花门剺面请雪耻，慎勿出口他人狙。哀哉王孙慎勿疏，五陵佳气无时无。</t>
+          <t>日色欲尽花含烟，月明如素愁不眠。(如素 一作：欲素)赵瑟初停凤凰柱，蜀琴欲奏鸳鸯弦。此曲有意无人传，愿随春风寄燕然。忆君迢迢隔青天。昔时横波目，今作流泪泉。不信妾肠断，归来看取明镜前。(肠断 一作：断肠)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>裴斐·李白诗歌赏析集·成都</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8571,12 +8571,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>少陵野老吞声哭，春日潜行曲江曲。江头宫殿锁千门，细柳新蒲为谁绿？忆昔霓旌下南苑，苑中万物生颜色。昭阳殿里第一人，同辇随君侍君侧。辇前才人带弓箭，白马嚼啮黄金勒。翻身向天仰射云，一笑正坠双飞翼。(一笑 一作：一箭)明眸皓齿今何在？血污游魂归不得。清渭东流剑阁深，去住彼此无消息。人生有情泪沾臆，江水江花岂终极！黄昏胡骑尘满城，欲往城南望城北。</t>
+          <t>月黑雁飞高，单于夜遁逃。欲将轻骑逐，大雪满弓刀。</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>于海娣 等·北京·唐诗鉴赏大全集[M]</t>
+          <t>书香童年．小学生必背古诗词75首</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8598,12 +8598,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>鹫翎金仆姑，燕尾绣蝥弧。独立扬新令，千营共一呼。</t>
+          <t>明月出天山，苍茫云海间。长风几万里，吹度玉门关。汉下白登道，胡窥青海湾。由来征战地，不见有人还。戍客望边邑，思归多苦颜。(望边邑 一作：望边色)高楼当此夜，叹息未应闲。</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>裴 斐．李白诗歌赏析集．成都</t>
         </is>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>孟郊</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8625,12 +8625,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>车辚辚，马萧萧，行人弓箭各在腰。耶娘妻子走相送，尘埃不见咸阳桥。(耶娘 一作：爷娘)牵衣顿足拦道哭，哭声直上干云霄。道旁过者问行人，行人但云点行频。或从十五北防河，便至四十西营田。去时里正与裹头，归来头白还戍边。边庭流血成海水，武皇开边意未已。君不闻汉家山东二百州，千村万落生荆杞。纵有健妇把锄犁，禾生陇亩无东西。况复秦兵耐苦战，被驱不异犬与鸡。长者虽有问，役夫敢申恨？且如今年冬，未休关西卒。县官急索租，租税从何出？信知生男恶，反是生女好。生女犹得嫁比邻，生男埋没随百草。君不见，青海头，古来白骨无人收。新鬼烦冤旧鬼</t>
+          <t>慈母手中线，游子身上衣。临行密密缝，意恐迟迟归。谁言寸草心，报得三春晖。</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>杜甫</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8652,12 +8652,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>三月三日天气新，长安水边多丽人。态浓意远淑且真，肌理细腻骨肉匀。绣罗衣裳照暮春，蹙金孔雀银麒麟。头上何所有？翠微匎叶垂鬓唇。背后何所见？珠压腰衱稳称身。就中云幕椒房亲，赐名大国虢与秦。紫驼之峰出翠釜，水精之盘行素鳞。犀箸厌饫久未下，鸾刀缕切空纷纶。黄门飞鞚不动尘，御厨络绎送八珍。箫鼓哀吟感鬼神，宾从杂遝实要津。后来鞍马何逡巡，当轩下马入锦茵。杨花雪落覆白蘋，青鸟飞去衔红巾。炙手可热势绝伦，慎莫近前丞相嗔！</t>
+          <t>长相思，在长安。络纬秋啼金井阑，微霜凄凄簟色寒。孤灯不明思欲绝，卷帷望月空长叹。美人如花隔云端。上有青冥之长天，下有渌水之波澜。(长天 一作：高天)天长路远魂飞苦，梦魂不到关山难。长相思，摧心肝。</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>萧涤非．杜甫诗选注．北京</t>
+          <t>裴斐·李白诗歌赏析集·成都</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>崔颢</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>一枝秾艳露凝香，云雨巫山枉断肠。(秾艳 一作：红艳)借问汉宫谁得似，可怜飞燕倚新妆。</t>
+          <t>家临九江水，来去九江侧。同是长干人，生小不相识。</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>王昌龄</t>
+          <t>王维</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8706,12 +8706,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>金井梧桐秋叶黄，珠帘不卷夜来霜。熏笼玉枕无颜色，卧听南宫清漏长。高殿秋砧响夜阑，霜深犹忆御衣寒。银灯青琐裁缝歇，还向金城明主看。奉帚平明金殿开，暂将团扇共徘徊。玉颜不及寒鸦色，犹带昭阳日影来。真成薄命久寻思，梦见君王觉后疑。火照西宫知夜饮，分明复道奉恩时。长信宫中秋月明，昭阳殿下捣衣声。白露堂中细草迹，红罗帐里不胜情。</t>
+          <t>洛阳女儿对门居，才可颜容十五余。良人玉勒乘骢马，侍女金盘脍鲤鱼。画阁朱楼尽相望，红桃绿柳垂檐向。罗帷送上七香车，宝扇迎归九华帐。狂夫富贵在青春，意气骄奢剧季伦。自怜碧玉亲教舞，不惜珊瑚持与人。春窗曙灭九微火，九微片片飞花琐。戏罢曾无理曲时，妆成祗是熏香坐。城中相识尽繁华，日夜经过赵李家。谁怜越女颜如玉，贫贱江头自浣纱。</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>于海娣 等·唐诗鉴赏大全集·北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>杜秋娘</t>
+          <t>李颀</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8733,12 +8733,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>劝君莫惜金缕衣，劝君惜取少年时。(惜取 一作：须取)花开堪折直须折，莫待无花空折枝。(花开 一作：有花)</t>
+          <t>白日登山望烽火，黄昏饮马傍交河。行人刁斗风沙暗，公主琵琶幽怨多。野云万里无城郭，雨雪纷纷连大漠。胡雁哀鸣夜夜飞，胡儿眼泪双双落。闻道玉门犹被遮，应将性命逐轻车。年年战骨埋荒外，空见蒲桃入汉家。</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>姜葆夫，韦良成选注 ． 常用古诗 姜葆夫，韦良成选注</t>
+          <t>朱凤相.一首借古写今缘情写景的边塞诗.西藏民族学院学报(哲学社会科学版),2006, 04</t>
         </is>
       </c>
     </row>
@@ -8760,12 +8760,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>名花倾国两相欢，长得君王带笑看。(长得 一作：常得)解释春风无限恨，沉香亭北倚阑干。</t>
+          <t>秦地罗敷女，采桑绿水边。素手青条上，红妆白日鲜。蚕饥妾欲去，五马莫留连。</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>蘅塘退士 等．唐诗三百首·宋词三百首·元曲三百首．北京</t>
+          <t>裴斐·李白诗歌赏析集·成都</t>
         </is>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>长相思，在长安。络纬秋啼金井阑，微霜凄凄簟色寒。孤灯不明思欲绝，卷帷望月空长叹。美人如花隔云端。上有青冥之长天，下有渌水之波澜。(长天 一作：高天)天长路远魂飞苦，梦魂不到关山难。长相思，摧心肝。</t>
+          <t>明朝驿使发，一夜絮征袍。素手抽针冷，那堪把剪刀。裁缝寄远道，几日到临洮。</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>裴斐·李白诗歌赏析集·成都</t>
+          <t>詹福瑞 等．李白诗全译．石家庄</t>
         </is>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>卢纶</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8814,12 +8814,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>林暗草惊风，将军夜引弓。平明寻白羽，没在石棱中。</t>
+          <t>妾发初覆额，折花门前剧。郎骑竹马来，绕床弄青梅。同居长干里，两小无嫌猜。十四为君妇，羞颜未尝开。低头向暗壁，千唤不一回。十五始展眉，愿同尘与灰。常存抱柱信，岂上望夫台。十六君远行，瞿塘滟滪堆。五月不可触，猿声天上哀。(猿声 一作：猿鸣)门前迟行迹，一一生绿苔。(迟 一作：旧)苔深不能扫，落叶秋风早。八月蝴蝶来，双飞西园草。(蝴蝶来 一作：蝴蝶黄)感此伤妾心，坐愁红颜老。早晚下三巴，预将书报家。相迎不道远，直至长风沙。</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．．北京</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>有耳莫洗颍川水，有口莫食首阳蕨。含光混世贵无名，何用孤高比云月？吾观自古贤达人，功成不退皆殒身。子胥既弃吴江上，屈原终投湘水滨。陆机雄才岂自保？李斯税驾苦不早。华亭鹤唳讵可闻？上蔡苍鹰何足道？君不见吴中张翰称达生，秋风忽忆江东行。且乐生前一杯酒，何须身后千载名？</t>
+          <t>大道如青天，我独不得出。羞逐长安社中儿，赤鸡白雉赌梨栗。弹剑作歌奏苦声，曳裾王门不称情。淮阴市井笑韩信，汉朝公卿忌贾生。君不见昔时燕家重郭隗，拥篲折节无嫌猜。剧辛乐毅感恩分，输肝剖胆效英才。昭王白骨萦蔓草，谁人更扫黄金台？行路难，归去来！</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>明月出天山，苍茫云海间。长风几万里，吹度玉门关。汉下白登道，胡窥青海湾。由来征战地，不见有人还。戍客望边邑，思归多苦颜。(望边邑 一作：望边色)高楼当此夜，叹息未应闲。</t>
+          <t>鹫翎金仆姑，燕尾绣蝥弧。独立扬新令，千营共一呼。</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>裴 斐．李白诗歌赏析集．成都</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -8895,12 +8895,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>玉阶生白露，夜久侵罗袜。却下水晶帘，玲珑望秋月。(水晶 一作：水精)</t>
+          <t>长安一片月，万户捣衣声。秋风吹不尽，总是玉关情。何日平胡虏，良人罢远征。</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>詹福瑞 等．李白诗全译．石家庄</t>
+          <t>裴 斐．李白诗歌赏析集．成都</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>高适</t>
+          <t>李益</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8922,12 +8922,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>开元二十六年，客有从元戎出塞而还者，作《燕歌行》以示，适感征戍之事，因而和焉。汉家烟尘在东北，汉将辞家破残贼。男儿本自重横行，天子非常赐颜色。摐金伐鼓下榆关，旌旆逶迤碣石间。校尉羽书飞瀚海，单于猎火照狼山。山川萧条极边土，胡骑凭陵杂风雨。战士军前半死生，美人帐下犹歌舞。大漠穷秋塞草腓，孤城落日斗兵稀。身当恩遇常轻敌，力尽关山未解围。(常轻敌 一作：恒轻敌)铁衣远戍辛勤久，玉箸应啼别离后。少妇城南欲断肠，征人蓟北空回首。边庭飘飖那可度，绝域苍茫无所有。(飘飖 一作：飘摇；无所 一作：更何)杀气三时作阵云，寒声一夜传刁斗。相看白刃血纷纷，死节从来岂顾勋！(血 一作：雪)君不见沙场征战苦，至今犹忆李将军。</t>
+          <t>嫁得瞿塘贾，朝朝误妾期。早知潮有信，嫁与弄潮儿。</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>刘士杰.语涉荒唐 怨情尤切——李益《江南曲》赏析.学语文,2003(11)</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>孟郊</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8949,12 +8949,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>明朝驿使发，一夜絮征袍。素手抽针冷，那堪把剪刀。裁缝寄远道，几日到临洮。</t>
+          <t>梧桐相待老，鸳鸯会双死。贞女贵殉夫，舍生亦如此。波澜誓不起，妾心古井水。(古井水 一作：井中水)</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>詹福瑞 等．李白诗全译．石家庄</t>
+          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>沈佺期</t>
+          <t>崔颢</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>卢家少妇郁金堂，海燕双栖玳瑁梁。九月寒砧催木叶，十年征戍忆辽阳。白狼河北音书断，丹凤城南秋夜长。谁为含愁独不见，更教明月照流黄。</t>
+          <t>君家何处住，妾住在横塘。停船暂借问，或恐是同乡。</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
+          <t>于海娣 等·唐诗鉴赏大全集[M]·北京</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>杜甫</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>云想衣裳花想容，春风拂槛露华浓。 若非群玉山头见，会向瑶台月下逢。</t>
+          <t>车辚辚，马萧萧，行人弓箭各在腰。耶娘妻子走相送，尘埃不见咸阳桥。(耶娘 一作：爷娘)牵衣顿足拦道哭，哭声直上干云霄。道旁过者问行人，行人但云点行频。或从十五北防河，便至四十西营田。去时里正与裹头，归来头白还戍边。边庭流血成海水，武皇开边意未已。君不闻汉家山东二百州，千村万落生荆杞。纵有健妇把锄犁，禾生陇亩无东西。况复秦兵耐苦战，被驱不异犬与鸡。长者虽有问，役夫敢申恨？且如今年冬，未休关西卒。县官急索租，租税从何出？信知生男恶，反是生女好。生女犹得嫁比邻，生男埋没随百草。君不见，青海头，古来白骨无人收。新鬼烦冤旧鬼哭，天阴雨湿声啾啾！</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>光明日报出版社.《唐诗三百首》</t>
+          <t>暂无参考资料</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>李白</t>
+          <t>沈佺期</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9030,12 +9030,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>妾发初覆额，折花门前剧。郎骑竹马来，绕床弄青梅。同居长干里，两小无嫌猜。十四为君妇，羞颜未尝开。低头向暗壁，千唤不一回。十五始展眉，愿同尘与灰。常存抱柱信，岂上望夫台。十六君远行，瞿塘滟滪堆。五月不可触，猿声天上哀。(猿声 一作：猿鸣)门前迟行迹，一一生绿苔。(迟 一作：旧)苔深不能扫，落叶秋风早。八月蝴蝶来，双飞西园草。(蝴蝶来 一作：蝴蝶黄)感此伤妾心，坐愁红颜老。早晚下三巴，预将书报家。相迎不道远，直至长风沙。</t>
+          <t>卢家少妇郁金堂，海燕双栖玳瑁梁。九月寒砧催木叶，十年征戍忆辽阳。白狼河北音书断，丹凤城南秋夜长。谁为含愁独不见，更教明月照流黄。</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>暂无参考资料</t>
+          <t>于海娣 等．唐诗鉴赏大全集．北京</t>
         </is>
       </c>
     </row>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>孟郊</t>
+          <t>卢纶</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9057,12 +9057,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>慈母手中线，游子身上衣。临行密密缝，意恐迟迟归。谁言寸草心，报得三春晖。</t>
+          <t>林暗草惊风，将军夜引弓。平明寻白羽，没在石棱中。</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>于海娣 等 ．唐诗鉴赏大全集 ．北京</t>
+          <t>于海娣 等．唐诗鉴赏大全集．．北京</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>崔颢</t>
+          <t>李白</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9084,12 +9084,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>君家何处住，妾住在横塘。停船暂借问，或恐是同乡。</t>
+          <t>金樽清酒斗十千，玉盘珍羞直万钱。(羞 同：馐；直 同：值)停杯投箸不能食，拔剑四顾心茫然。欲渡黄河冰塞川，将登太行雪满山。(雪满山 一作：雪暗天)闲来垂钓碧溪上，忽复乘舟梦日边。(碧 一作：坐)行路难，行路难，多歧路，今安在？长风破浪会有时，直挂云帆济沧海。</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>于海娣 等·唐诗鉴赏大全集[M]·北京</t>
+          <t>裴 斐．李白诗歌赏析集．成都</t>
         </is>
       </c>
     </row>
